--- a/20 開発資料/05.改修管理/150_改修管理_WBSElement追加.xlsx
+++ b/20 開発資料/05.改修管理/150_改修管理_WBSElement追加.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="-135" windowWidth="15600" windowHeight="4350" tabRatio="886"/>
+    <workbookView xWindow="45" yWindow="-120" windowWidth="15600" windowHeight="4335" tabRatio="886"/>
   </bookViews>
   <sheets>
     <sheet name="WBS Element追加" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -332,19 +332,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>交通宿泊取込(ImportKotsuhotelManual.vbproj)</t>
-    <rPh sb="0" eb="2">
-      <t>コウツウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュクハク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トリコミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プログラム</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -538,6 +525,67 @@
   </si>
   <si>
     <t>TaxiJissekiCsv.aspx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケ台帳CSV(Bayer.vbproj)</t>
+    <rPh sb="4" eb="6">
+      <t>ダイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TaxiMeisaiCsv.aspx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出力項目として講演会テーブルのWBS Element(3列目)と交通宿泊テーブルのWBS Element(6列目)を追加</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>交通宿泊手動取込(ImportKotsuhotelManual.vbproj)</t>
+    <rPh sb="0" eb="2">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トリコミ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -788,20 +836,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -844,6 +883,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1147,13 +1195,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG20"/>
+  <dimension ref="A1:BG21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="48" ySplit="6" topLeftCell="AW11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="48" ySplit="6" topLeftCell="AW7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="X19" sqref="X19:AJ19"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -1163,246 +1211,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="20" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="17" t="s">
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17" t="s">
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17" t="s">
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17" t="s">
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
+      <c r="AX1" s="14"/>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="14"/>
+      <c r="BA1" s="14"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="19">
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="16">
         <v>42563</v>
       </c>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="17" t="s">
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="17"/>
-      <c r="BA2" s="17"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="14"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="17"/>
-      <c r="AN3" s="17"/>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="17"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="19"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="17"/>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="17"/>
-      <c r="AZ3" s="17"/>
-      <c r="BA3" s="17"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="17"/>
-      <c r="AO4" s="17"/>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="17"/>
-      <c r="AR4" s="19"/>
-      <c r="AS4" s="19"/>
-      <c r="AT4" s="19"/>
-      <c r="AU4" s="19"/>
-      <c r="AV4" s="19"/>
-      <c r="AW4" s="17"/>
-      <c r="AX4" s="17"/>
-      <c r="AY4" s="17"/>
-      <c r="AZ4" s="17"/>
-      <c r="BA4" s="17"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="14"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -1429,68 +1477,68 @@
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16" t="s">
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="16"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="16"/>
-      <c r="AP6" s="16"/>
-      <c r="AQ6" s="16"/>
-      <c r="AR6" s="16"/>
-      <c r="AS6" s="16"/>
-      <c r="AT6" s="16"/>
-      <c r="AU6" s="16"/>
-      <c r="AV6" s="16"/>
-      <c r="AW6" s="16" t="s">
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AX6" s="16"/>
-      <c r="AY6" s="16"/>
-      <c r="AZ6" s="16"/>
-      <c r="BA6" s="16"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="13"/>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
@@ -1503,924 +1551,993 @@
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="10" t="s">
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="11"/>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
-      <c r="AV7" s="11"/>
-      <c r="AW7" s="11"/>
-      <c r="AX7" s="11"/>
-      <c r="AY7" s="11"/>
-      <c r="AZ7" s="11"/>
-      <c r="BA7" s="11"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28"/>
+      <c r="AQ7" s="28"/>
+      <c r="AR7" s="28"/>
+      <c r="AS7" s="28"/>
+      <c r="AT7" s="28"/>
+      <c r="AU7" s="28"/>
+      <c r="AV7" s="28"/>
+      <c r="AW7" s="28"/>
+      <c r="AX7" s="28"/>
+      <c r="AY7" s="28"/>
+      <c r="AZ7" s="28"/>
+      <c r="BA7" s="28"/>
     </row>
     <row r="8" spans="1:59" s="3" customFormat="1" ht="26.25" customHeight="1">
       <c r="A8" s="7">
-        <f t="shared" ref="A8:A20" si="0">ROW()-6</f>
+        <f t="shared" ref="A8:A21" si="0">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="12" t="s">
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="13"/>
-      <c r="AW8" s="13"/>
-      <c r="AX8" s="13"/>
-      <c r="AY8" s="13"/>
-      <c r="AZ8" s="13"/>
-      <c r="BA8" s="13"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="11"/>
+      <c r="AT8" s="11"/>
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="11"/>
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="11"/>
     </row>
     <row r="9" spans="1:59" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="12" t="s">
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="13"/>
-      <c r="AQ9" s="13"/>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="13"/>
-      <c r="AT9" s="13"/>
-      <c r="AU9" s="13"/>
-      <c r="AV9" s="13"/>
-      <c r="AW9" s="13"/>
-      <c r="AX9" s="13"/>
-      <c r="AY9" s="13"/>
-      <c r="AZ9" s="13"/>
-      <c r="BA9" s="13"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="11"/>
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="11"/>
+      <c r="AW9" s="11"/>
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="11"/>
+      <c r="AZ9" s="11"/>
+      <c r="BA9" s="11"/>
     </row>
     <row r="10" spans="1:59" s="5" customFormat="1" ht="48" customHeight="1">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="12" t="s">
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="13"/>
-      <c r="AP10" s="13"/>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="13"/>
-      <c r="AT10" s="13"/>
-      <c r="AU10" s="13"/>
-      <c r="AV10" s="13"/>
-      <c r="AW10" s="13"/>
-      <c r="AX10" s="13"/>
-      <c r="AY10" s="13"/>
-      <c r="AZ10" s="13"/>
-      <c r="BA10" s="13"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="11"/>
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="11"/>
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="11"/>
     </row>
     <row r="11" spans="1:59" s="3" customFormat="1" ht="64.5" customHeight="1">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="13" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="12" t="s">
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="13"/>
-      <c r="AP11" s="13"/>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="13"/>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="13"/>
-      <c r="AV11" s="13"/>
-      <c r="AW11" s="13"/>
-      <c r="AX11" s="13"/>
-      <c r="AY11" s="13"/>
-      <c r="AZ11" s="13"/>
-      <c r="BA11" s="13"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
+      <c r="AV11" s="11"/>
+      <c r="AW11" s="11"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="11"/>
+      <c r="AZ11" s="11"/>
+      <c r="BA11" s="11"/>
     </row>
     <row r="12" spans="1:59" s="5" customFormat="1" ht="64.5" customHeight="1">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13" t="s">
+      <c r="B12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="12" t="s">
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="13"/>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="13"/>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="13"/>
-      <c r="AV12" s="13"/>
-      <c r="AW12" s="13"/>
-      <c r="AX12" s="13"/>
-      <c r="AY12" s="13"/>
-      <c r="AZ12" s="13"/>
-      <c r="BA12" s="13"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="11"/>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="11"/>
+      <c r="AZ12" s="11"/>
+      <c r="BA12" s="11"/>
     </row>
     <row r="13" spans="1:59" s="3" customFormat="1" ht="30.75" customHeight="1">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="12" t="s">
+      <c r="B13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="13"/>
-      <c r="AO13" s="13"/>
-      <c r="AP13" s="13"/>
-      <c r="AQ13" s="13"/>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="13"/>
-      <c r="AT13" s="13"/>
-      <c r="AU13" s="13"/>
-      <c r="AV13" s="13"/>
-      <c r="AW13" s="13"/>
-      <c r="AX13" s="13"/>
-      <c r="AY13" s="13"/>
-      <c r="AZ13" s="13"/>
-      <c r="BA13" s="13"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="11"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
+      <c r="AV13" s="11"/>
+      <c r="AW13" s="11"/>
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="11"/>
+      <c r="AZ13" s="11"/>
+      <c r="BA13" s="11"/>
     </row>
     <row r="14" spans="1:59" s="6" customFormat="1" ht="30.75" customHeight="1">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="12" t="s">
+      <c r="B14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="13"/>
-      <c r="AT14" s="13"/>
-      <c r="AU14" s="13"/>
-      <c r="AV14" s="13"/>
-      <c r="AW14" s="13"/>
-      <c r="AX14" s="13"/>
-      <c r="AY14" s="13"/>
-      <c r="AZ14" s="13"/>
-      <c r="BA14" s="13"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="11"/>
+      <c r="AS14" s="11"/>
+      <c r="AT14" s="11"/>
+      <c r="AU14" s="11"/>
+      <c r="AV14" s="11"/>
+      <c r="AW14" s="11"/>
+      <c r="AX14" s="11"/>
+      <c r="AY14" s="11"/>
+      <c r="AZ14" s="11"/>
+      <c r="BA14" s="11"/>
     </row>
     <row r="15" spans="1:59" s="6" customFormat="1" ht="30.75" customHeight="1">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12" t="s">
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="13"/>
-      <c r="AO15" s="13"/>
-      <c r="AP15" s="13"/>
-      <c r="AQ15" s="13"/>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="13"/>
-      <c r="AT15" s="13"/>
-      <c r="AU15" s="13"/>
-      <c r="AV15" s="13"/>
-      <c r="AW15" s="13"/>
-      <c r="AX15" s="13"/>
-      <c r="AY15" s="13"/>
-      <c r="AZ15" s="13"/>
-      <c r="BA15" s="13"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="11"/>
+      <c r="AT15" s="11"/>
+      <c r="AU15" s="11"/>
+      <c r="AV15" s="11"/>
+      <c r="AW15" s="11"/>
+      <c r="AX15" s="11"/>
+      <c r="AY15" s="11"/>
+      <c r="AZ15" s="11"/>
+      <c r="BA15" s="11"/>
     </row>
-    <row r="16" spans="1:59" s="6" customFormat="1" ht="30.75" customHeight="1">
+    <row r="16" spans="1:59" s="6" customFormat="1" ht="45.75" customHeight="1">
       <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="13"/>
-      <c r="AT16" s="13"/>
-      <c r="AU16" s="13"/>
-      <c r="AV16" s="13"/>
-      <c r="AW16" s="13"/>
-      <c r="AX16" s="13"/>
-      <c r="AY16" s="13"/>
-      <c r="AZ16" s="13"/>
-      <c r="BA16" s="13"/>
+      <c r="B16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="11"/>
+      <c r="AX16" s="11"/>
+      <c r="AY16" s="11"/>
+      <c r="AZ16" s="11"/>
+      <c r="BA16" s="11"/>
     </row>
-    <row r="17" spans="1:53" s="6" customFormat="1" ht="45.75" customHeight="1">
+    <row r="17" spans="1:53" s="6" customFormat="1" ht="30.75" customHeight="1">
       <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="12"/>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
-      <c r="AM17" s="13"/>
-      <c r="AN17" s="13"/>
-      <c r="AO17" s="13"/>
-      <c r="AP17" s="13"/>
-      <c r="AQ17" s="13"/>
-      <c r="AR17" s="13"/>
-      <c r="AS17" s="13"/>
-      <c r="AT17" s="13"/>
-      <c r="AU17" s="13"/>
-      <c r="AV17" s="13"/>
-      <c r="AW17" s="13"/>
-      <c r="AX17" s="13"/>
-      <c r="AY17" s="13"/>
-      <c r="AZ17" s="13"/>
-      <c r="BA17" s="13"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="11"/>
+      <c r="AT17" s="11"/>
+      <c r="AU17" s="11"/>
+      <c r="AV17" s="11"/>
+      <c r="AW17" s="11"/>
+      <c r="AX17" s="11"/>
+      <c r="AY17" s="11"/>
+      <c r="AZ17" s="11"/>
+      <c r="BA17" s="11"/>
     </row>
     <row r="18" spans="1:53" s="6" customFormat="1" ht="45.75" customHeight="1">
       <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="12"/>
-      <c r="AI18" s="12"/>
-      <c r="AJ18" s="12"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="13"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="13"/>
-      <c r="AP18" s="13"/>
-      <c r="AQ18" s="13"/>
-      <c r="AR18" s="13"/>
-      <c r="AS18" s="13"/>
-      <c r="AT18" s="13"/>
-      <c r="AU18" s="13"/>
-      <c r="AV18" s="13"/>
-      <c r="AW18" s="13"/>
-      <c r="AX18" s="13"/>
-      <c r="AY18" s="13"/>
-      <c r="AZ18" s="13"/>
-      <c r="BA18" s="13"/>
+      <c r="B18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="11"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="11"/>
+      <c r="AR18" s="11"/>
+      <c r="AS18" s="11"/>
+      <c r="AT18" s="11"/>
+      <c r="AU18" s="11"/>
+      <c r="AV18" s="11"/>
+      <c r="AW18" s="11"/>
+      <c r="AX18" s="11"/>
+      <c r="AY18" s="11"/>
+      <c r="AZ18" s="11"/>
+      <c r="BA18" s="11"/>
     </row>
     <row r="19" spans="1:53" s="6" customFormat="1" ht="45.75" customHeight="1">
       <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="12"/>
-      <c r="AI19" s="12"/>
-      <c r="AJ19" s="12"/>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="13"/>
-      <c r="AM19" s="13"/>
-      <c r="AN19" s="13"/>
-      <c r="AO19" s="13"/>
-      <c r="AP19" s="13"/>
-      <c r="AQ19" s="13"/>
-      <c r="AR19" s="13"/>
-      <c r="AS19" s="13"/>
-      <c r="AT19" s="13"/>
-      <c r="AU19" s="13"/>
-      <c r="AV19" s="13"/>
-      <c r="AW19" s="13"/>
-      <c r="AX19" s="13"/>
-      <c r="AY19" s="13"/>
-      <c r="AZ19" s="13"/>
-      <c r="BA19" s="13"/>
+      <c r="B19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="11"/>
+      <c r="AT19" s="11"/>
+      <c r="AU19" s="11"/>
+      <c r="AV19" s="11"/>
+      <c r="AW19" s="11"/>
+      <c r="AX19" s="11"/>
+      <c r="AY19" s="11"/>
+      <c r="AZ19" s="11"/>
+      <c r="BA19" s="11"/>
     </row>
-    <row r="20" spans="1:53" s="5" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A20" s="8">
+    <row r="20" spans="1:53" s="6" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="15"/>
-      <c r="AL20" s="15"/>
-      <c r="AM20" s="15"/>
-      <c r="AN20" s="15"/>
-      <c r="AO20" s="15"/>
-      <c r="AP20" s="15"/>
-      <c r="AQ20" s="15"/>
-      <c r="AR20" s="15"/>
-      <c r="AS20" s="15"/>
-      <c r="AT20" s="15"/>
-      <c r="AU20" s="15"/>
-      <c r="AV20" s="15"/>
-      <c r="AW20" s="15"/>
-      <c r="AX20" s="15"/>
-      <c r="AY20" s="15"/>
-      <c r="AZ20" s="15"/>
-      <c r="BA20" s="15"/>
+      <c r="B20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="11"/>
+      <c r="AT20" s="11"/>
+      <c r="AU20" s="11"/>
+      <c r="AV20" s="11"/>
+      <c r="AW20" s="11"/>
+      <c r="AX20" s="11"/>
+      <c r="AY20" s="11"/>
+      <c r="AZ20" s="11"/>
+      <c r="BA20" s="11"/>
+    </row>
+    <row r="21" spans="1:53" s="5" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A21" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="12"/>
+      <c r="AV21" s="12"/>
+      <c r="AW21" s="12"/>
+      <c r="AX21" s="12"/>
+      <c r="AY21" s="12"/>
+      <c r="AZ21" s="12"/>
+      <c r="BA21" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="X19:AJ19"/>
-    <mergeCell ref="AK19:AV19"/>
-    <mergeCell ref="AW19:BA19"/>
+  <mergeCells count="93">
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="K16:W16"/>
+    <mergeCell ref="X16:AJ16"/>
+    <mergeCell ref="AK16:AV16"/>
     <mergeCell ref="AW16:BA16"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="X18:AJ18"/>
-    <mergeCell ref="AK18:AV18"/>
-    <mergeCell ref="AW18:BA18"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="K14:W14"/>
-    <mergeCell ref="X14:AJ14"/>
-    <mergeCell ref="AK14:AV14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="AW20:BA20"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AJ12"/>
-    <mergeCell ref="AK12:AV12"/>
-    <mergeCell ref="AW12:BA12"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="K15:W15"/>
-    <mergeCell ref="X15:AJ15"/>
-    <mergeCell ref="AK15:AV15"/>
-    <mergeCell ref="AW15:BA15"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="X7:AJ7"/>
+    <mergeCell ref="AK7:AV7"/>
+    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AJ8"/>
+    <mergeCell ref="AK8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AJ9"/>
+    <mergeCell ref="AK9:AV9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:W21"/>
+    <mergeCell ref="X21:AJ21"/>
+    <mergeCell ref="AK21:AV21"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="X6:AJ6"/>
+    <mergeCell ref="AK6:AV6"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AJ10"/>
+    <mergeCell ref="AK10:AV10"/>
     <mergeCell ref="B17:J17"/>
     <mergeCell ref="K17:W17"/>
     <mergeCell ref="X17:AJ17"/>
     <mergeCell ref="AK17:AV17"/>
-    <mergeCell ref="AW17:BA17"/>
     <mergeCell ref="AW6:BA6"/>
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="A2:I4"/>
@@ -2435,22 +2552,28 @@
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AM1:AQ1"/>
     <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K20:W20"/>
-    <mergeCell ref="X20:AJ20"/>
-    <mergeCell ref="AK20:AV20"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="X6:AJ6"/>
-    <mergeCell ref="AK6:AV6"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AJ10"/>
-    <mergeCell ref="AK10:AV10"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="K16:W16"/>
-    <mergeCell ref="X16:AJ16"/>
-    <mergeCell ref="AK16:AV16"/>
+    <mergeCell ref="AW21:BA21"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AJ12"/>
+    <mergeCell ref="AK12:AV12"/>
+    <mergeCell ref="AW12:BA12"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="K15:W15"/>
+    <mergeCell ref="X15:AJ15"/>
+    <mergeCell ref="AK15:AV15"/>
+    <mergeCell ref="AW15:BA15"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="X18:AJ18"/>
+    <mergeCell ref="AK18:AV18"/>
+    <mergeCell ref="AW18:BA18"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="K14:W14"/>
+    <mergeCell ref="X14:AJ14"/>
+    <mergeCell ref="AK14:AV14"/>
+    <mergeCell ref="AW14:BA14"/>
     <mergeCell ref="B11:J11"/>
     <mergeCell ref="K11:W11"/>
     <mergeCell ref="X11:AJ11"/>
@@ -2461,21 +2584,17 @@
     <mergeCell ref="X13:AJ13"/>
     <mergeCell ref="AK13:AV13"/>
     <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AJ9"/>
-    <mergeCell ref="AK9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AJ8"/>
-    <mergeCell ref="AK8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="X7:AJ7"/>
-    <mergeCell ref="AK7:AV7"/>
-    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="AW17:BA17"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="X19:AJ19"/>
+    <mergeCell ref="AK19:AV19"/>
+    <mergeCell ref="AW19:BA19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K20:W20"/>
+    <mergeCell ref="X20:AJ20"/>
+    <mergeCell ref="AK20:AV20"/>
+    <mergeCell ref="AW20:BA20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>

--- a/20 開発資料/05.改修管理/150_改修管理_WBSElement追加.xlsx
+++ b/20 開発資料/05.改修管理/150_改修管理_WBSElement追加.xlsx
@@ -842,6 +842,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -883,15 +892,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1195,13 +1195,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BG21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="48" ySplit="6" topLeftCell="AW7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -1211,246 +1212,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="17" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="14" t="s">
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14" t="s">
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="14" t="s">
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14" t="s">
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AX1" s="14"/>
-      <c r="AY1" s="14"/>
-      <c r="AZ1" s="14"/>
-      <c r="BA1" s="14"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="16">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="19">
         <v>42563</v>
       </c>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="14" t="s">
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="16"/>
-      <c r="AW2" s="14"/>
-      <c r="AX2" s="14"/>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="14"/>
-      <c r="BA2" s="14"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="17"/>
+      <c r="BA2" s="17"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="16"/>
-      <c r="AS3" s="16"/>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="16"/>
-      <c r="AV3" s="16"/>
-      <c r="AW3" s="14"/>
-      <c r="AX3" s="14"/>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="14"/>
-      <c r="BA3" s="14"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="17"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="17"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="19"/>
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="17"/>
+      <c r="AZ3" s="17"/>
+      <c r="BA3" s="17"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="14"/>
-      <c r="AO4" s="14"/>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="14"/>
-      <c r="AR4" s="16"/>
-      <c r="AS4" s="16"/>
-      <c r="AT4" s="16"/>
-      <c r="AU4" s="16"/>
-      <c r="AV4" s="16"/>
-      <c r="AW4" s="14"/>
-      <c r="AX4" s="14"/>
-      <c r="AY4" s="14"/>
-      <c r="AZ4" s="14"/>
-      <c r="BA4" s="14"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="19"/>
+      <c r="AT4" s="19"/>
+      <c r="AU4" s="19"/>
+      <c r="AV4" s="19"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="17"/>
+      <c r="AZ4" s="17"/>
+      <c r="BA4" s="17"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -1477,68 +1478,68 @@
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13" t="s">
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13" t="s">
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13" t="s">
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AX6" s="13"/>
-      <c r="AY6" s="13"/>
-      <c r="AZ6" s="13"/>
-      <c r="BA6" s="13"/>
+      <c r="AX6" s="16"/>
+      <c r="AY6" s="16"/>
+      <c r="AZ6" s="16"/>
+      <c r="BA6" s="16"/>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
@@ -1551,64 +1552,64 @@
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="27" t="s">
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="27"/>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="27"/>
-      <c r="AK7" s="28"/>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="28"/>
-      <c r="AP7" s="28"/>
-      <c r="AQ7" s="28"/>
-      <c r="AR7" s="28"/>
-      <c r="AS7" s="28"/>
-      <c r="AT7" s="28"/>
-      <c r="AU7" s="28"/>
-      <c r="AV7" s="28"/>
-      <c r="AW7" s="28"/>
-      <c r="AX7" s="28"/>
-      <c r="AY7" s="28"/>
-      <c r="AZ7" s="28"/>
-      <c r="BA7" s="28"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="13"/>
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="13"/>
+      <c r="AZ7" s="13"/>
+      <c r="BA7" s="13"/>
     </row>
     <row r="8" spans="1:59" s="3" customFormat="1" ht="26.25" customHeight="1">
       <c r="A8" s="7">
@@ -2447,81 +2448,118 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="26"/>
-      <c r="AJ21" s="26"/>
-      <c r="AK21" s="12"/>
-      <c r="AL21" s="12"/>
-      <c r="AM21" s="12"/>
-      <c r="AN21" s="12"/>
-      <c r="AO21" s="12"/>
-      <c r="AP21" s="12"/>
-      <c r="AQ21" s="12"/>
-      <c r="AR21" s="12"/>
-      <c r="AS21" s="12"/>
-      <c r="AT21" s="12"/>
-      <c r="AU21" s="12"/>
-      <c r="AV21" s="12"/>
-      <c r="AW21" s="12"/>
-      <c r="AX21" s="12"/>
-      <c r="AY21" s="12"/>
-      <c r="AZ21" s="12"/>
-      <c r="BA21" s="12"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="15"/>
+      <c r="AQ21" s="15"/>
+      <c r="AR21" s="15"/>
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="15"/>
+      <c r="AU21" s="15"/>
+      <c r="AV21" s="15"/>
+      <c r="AW21" s="15"/>
+      <c r="AX21" s="15"/>
+      <c r="AY21" s="15"/>
+      <c r="AZ21" s="15"/>
+      <c r="BA21" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="K16:W16"/>
-    <mergeCell ref="X16:AJ16"/>
-    <mergeCell ref="AK16:AV16"/>
-    <mergeCell ref="AW16:BA16"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="X7:AJ7"/>
-    <mergeCell ref="AK7:AV7"/>
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AJ8"/>
-    <mergeCell ref="AK8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AJ9"/>
-    <mergeCell ref="AK9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K20:W20"/>
+    <mergeCell ref="X20:AJ20"/>
+    <mergeCell ref="AK20:AV20"/>
+    <mergeCell ref="AW20:BA20"/>
+    <mergeCell ref="AW17:BA17"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="X19:AJ19"/>
+    <mergeCell ref="AK19:AV19"/>
+    <mergeCell ref="AW19:BA19"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="K14:W14"/>
+    <mergeCell ref="X14:AJ14"/>
+    <mergeCell ref="AK14:AV14"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AJ11"/>
+    <mergeCell ref="AK11:AV11"/>
+    <mergeCell ref="AW11:BA11"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="K13:W13"/>
+    <mergeCell ref="X13:AJ13"/>
+    <mergeCell ref="AK13:AV13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="AW21:BA21"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AJ12"/>
+    <mergeCell ref="AK12:AV12"/>
+    <mergeCell ref="AW12:BA12"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="K15:W15"/>
+    <mergeCell ref="X15:AJ15"/>
+    <mergeCell ref="AK15:AV15"/>
+    <mergeCell ref="AW15:BA15"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="X18:AJ18"/>
+    <mergeCell ref="AK18:AV18"/>
+    <mergeCell ref="AW18:BA18"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="AH2:AL4"/>
+    <mergeCell ref="AM2:AQ4"/>
+    <mergeCell ref="AR2:AV4"/>
+    <mergeCell ref="AW2:BA4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:AG4"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="K21:W21"/>
     <mergeCell ref="X21:AJ21"/>
@@ -2538,63 +2576,26 @@
     <mergeCell ref="K17:W17"/>
     <mergeCell ref="X17:AJ17"/>
     <mergeCell ref="AK17:AV17"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="A2:I4"/>
-    <mergeCell ref="J2:O4"/>
-    <mergeCell ref="AH2:AL4"/>
-    <mergeCell ref="AM2:AQ4"/>
-    <mergeCell ref="AR2:AV4"/>
-    <mergeCell ref="AW2:BA4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:AG4"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AM1:AQ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="AW21:BA21"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AJ12"/>
-    <mergeCell ref="AK12:AV12"/>
-    <mergeCell ref="AW12:BA12"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="K15:W15"/>
-    <mergeCell ref="X15:AJ15"/>
-    <mergeCell ref="AK15:AV15"/>
-    <mergeCell ref="AW15:BA15"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="X18:AJ18"/>
-    <mergeCell ref="AK18:AV18"/>
-    <mergeCell ref="AW18:BA18"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="K14:W14"/>
-    <mergeCell ref="X14:AJ14"/>
-    <mergeCell ref="AK14:AV14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AJ11"/>
-    <mergeCell ref="AK11:AV11"/>
-    <mergeCell ref="AW11:BA11"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="K13:W13"/>
-    <mergeCell ref="X13:AJ13"/>
-    <mergeCell ref="AK13:AV13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="AW17:BA17"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="X19:AJ19"/>
-    <mergeCell ref="AK19:AV19"/>
-    <mergeCell ref="AW19:BA19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K20:W20"/>
-    <mergeCell ref="X20:AJ20"/>
-    <mergeCell ref="AK20:AV20"/>
-    <mergeCell ref="AW20:BA20"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AJ9"/>
+    <mergeCell ref="AK9:AV9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AJ8"/>
+    <mergeCell ref="AK8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="X7:AJ7"/>
+    <mergeCell ref="AK7:AV7"/>
+    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="K16:W16"/>
+    <mergeCell ref="X16:AJ16"/>
+    <mergeCell ref="AK16:AV16"/>
+    <mergeCell ref="AW16:BA16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>

--- a/20 開発資料/05.改修管理/150_改修管理_WBSElement追加.xlsx
+++ b/20 開発資料/05.改修管理/150_改修管理_WBSElement追加.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="-120" windowWidth="15600" windowHeight="4335" tabRatio="886"/>
+    <workbookView xWindow="10650" yWindow="1950" windowWidth="15600" windowHeight="10485" tabRatio="886"/>
   </bookViews>
   <sheets>
     <sheet name="WBS Element追加" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'WBS Element追加'!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'WBS Element追加'!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -585,6 +585,77 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>トリコミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SAP用CSVデータ出力(Bayer.vbproj)</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SapCsv.aspx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出力項目変更(プロセス概要(25_SAP用CSVデータ作成 201701～).xlsx 参照)
+処理スピード向上の為、TBL_KOTSUHOTELとTBL_TAXITICKET_HAKKOにインデックス追加)</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>コウジョウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SAP用CSVデータTOPTOUR用出力(Bayer.vbproj)</t>
+    <rPh sb="17" eb="18">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SapCsvTop.aspx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出力項目変更(プロセス概要(25_SAP用CSVデータ作成 201701～).xlsx 参照)
+従来のTOPTOUR用出力項目はそのまま。</t>
+    <rPh sb="48" eb="50">
+      <t>ジュウライ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>コウモク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -842,15 +913,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -892,6 +954,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1196,13 +1267,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BG21"/>
+  <dimension ref="A1:BG22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="48" ySplit="6" topLeftCell="AW7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7:J7"/>
+      <selection pane="bottomRight" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -1212,246 +1283,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="20" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="17" t="s">
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17" t="s">
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17" t="s">
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17" t="s">
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
+      <c r="AX1" s="14"/>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="14"/>
+      <c r="BA1" s="14"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="19">
-        <v>42563</v>
-      </c>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="17" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="16">
+        <v>42571</v>
+      </c>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="17"/>
-      <c r="BA2" s="17"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="14"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="17"/>
-      <c r="AN3" s="17"/>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="17"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="19"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="17"/>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="17"/>
-      <c r="AZ3" s="17"/>
-      <c r="BA3" s="17"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="17"/>
-      <c r="AO4" s="17"/>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="17"/>
-      <c r="AR4" s="19"/>
-      <c r="AS4" s="19"/>
-      <c r="AT4" s="19"/>
-      <c r="AU4" s="19"/>
-      <c r="AV4" s="19"/>
-      <c r="AW4" s="17"/>
-      <c r="AX4" s="17"/>
-      <c r="AY4" s="17"/>
-      <c r="AZ4" s="17"/>
-      <c r="BA4" s="17"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="14"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -1478,68 +1549,68 @@
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16" t="s">
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16" t="s">
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="16"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="16"/>
-      <c r="AP6" s="16"/>
-      <c r="AQ6" s="16"/>
-      <c r="AR6" s="16"/>
-      <c r="AS6" s="16"/>
-      <c r="AT6" s="16"/>
-      <c r="AU6" s="16"/>
-      <c r="AV6" s="16"/>
-      <c r="AW6" s="16" t="s">
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AX6" s="16"/>
-      <c r="AY6" s="16"/>
-      <c r="AZ6" s="16"/>
-      <c r="BA6" s="16"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="13"/>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
@@ -1552,68 +1623,68 @@
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="12" t="s">
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
-      <c r="AV7" s="13"/>
-      <c r="AW7" s="13"/>
-      <c r="AX7" s="13"/>
-      <c r="AY7" s="13"/>
-      <c r="AZ7" s="13"/>
-      <c r="BA7" s="13"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28"/>
+      <c r="AQ7" s="28"/>
+      <c r="AR7" s="28"/>
+      <c r="AS7" s="28"/>
+      <c r="AT7" s="28"/>
+      <c r="AU7" s="28"/>
+      <c r="AV7" s="28"/>
+      <c r="AW7" s="28"/>
+      <c r="AX7" s="28"/>
+      <c r="AY7" s="28"/>
+      <c r="AZ7" s="28"/>
+      <c r="BA7" s="28"/>
     </row>
     <row r="8" spans="1:59" s="3" customFormat="1" ht="26.25" customHeight="1">
       <c r="A8" s="7">
-        <f t="shared" ref="A8:A21" si="0">ROW()-6</f>
+        <f t="shared" ref="A8:A22" si="0">ROW()-6</f>
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2443,77 +2514,207 @@
       <c r="AZ20" s="11"/>
       <c r="BA20" s="11"/>
     </row>
-    <row r="21" spans="1:53" s="5" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A21" s="8">
+    <row r="21" spans="1:53" s="6" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="15"/>
-      <c r="AM21" s="15"/>
-      <c r="AN21" s="15"/>
-      <c r="AO21" s="15"/>
-      <c r="AP21" s="15"/>
-      <c r="AQ21" s="15"/>
-      <c r="AR21" s="15"/>
-      <c r="AS21" s="15"/>
-      <c r="AT21" s="15"/>
-      <c r="AU21" s="15"/>
-      <c r="AV21" s="15"/>
-      <c r="AW21" s="15"/>
-      <c r="AX21" s="15"/>
-      <c r="AY21" s="15"/>
-      <c r="AZ21" s="15"/>
-      <c r="BA21" s="15"/>
+      <c r="B21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="11"/>
+      <c r="AP21" s="11"/>
+      <c r="AQ21" s="11"/>
+      <c r="AR21" s="11"/>
+      <c r="AS21" s="11"/>
+      <c r="AT21" s="11"/>
+      <c r="AU21" s="11"/>
+      <c r="AV21" s="11"/>
+      <c r="AW21" s="11"/>
+      <c r="AX21" s="11"/>
+      <c r="AY21" s="11"/>
+      <c r="AZ21" s="11"/>
+      <c r="BA21" s="11"/>
+    </row>
+    <row r="22" spans="1:53" s="5" customFormat="1" ht="42" customHeight="1">
+      <c r="A22" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
+      <c r="AY22" s="12"/>
+      <c r="AZ22" s="12"/>
+      <c r="BA22" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="93">
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K20:W20"/>
-    <mergeCell ref="X20:AJ20"/>
-    <mergeCell ref="AK20:AV20"/>
-    <mergeCell ref="AW20:BA20"/>
-    <mergeCell ref="AW17:BA17"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="X19:AJ19"/>
-    <mergeCell ref="AK19:AV19"/>
-    <mergeCell ref="AW19:BA19"/>
+  <mergeCells count="98">
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:W21"/>
+    <mergeCell ref="X21:AJ21"/>
+    <mergeCell ref="AK21:AV21"/>
+    <mergeCell ref="AW21:BA21"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="K16:W16"/>
+    <mergeCell ref="X16:AJ16"/>
+    <mergeCell ref="AK16:AV16"/>
+    <mergeCell ref="AW16:BA16"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="X7:AJ7"/>
+    <mergeCell ref="AK7:AV7"/>
+    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AJ8"/>
+    <mergeCell ref="AK8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AJ9"/>
+    <mergeCell ref="AK9:AV9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="X22:AJ22"/>
+    <mergeCell ref="AK22:AV22"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="X6:AJ6"/>
+    <mergeCell ref="AK6:AV6"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AJ10"/>
+    <mergeCell ref="AK10:AV10"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="K17:W17"/>
+    <mergeCell ref="X17:AJ17"/>
+    <mergeCell ref="AK17:AV17"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="AH2:AL4"/>
+    <mergeCell ref="AM2:AQ4"/>
+    <mergeCell ref="AR2:AV4"/>
+    <mergeCell ref="AW2:BA4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:AG4"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="AW22:BA22"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AJ12"/>
+    <mergeCell ref="AK12:AV12"/>
+    <mergeCell ref="AW12:BA12"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="K15:W15"/>
+    <mergeCell ref="X15:AJ15"/>
+    <mergeCell ref="AK15:AV15"/>
+    <mergeCell ref="AW15:BA15"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="X18:AJ18"/>
+    <mergeCell ref="AK18:AV18"/>
+    <mergeCell ref="AW18:BA18"/>
     <mergeCell ref="AW10:BA10"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="K14:W14"/>
@@ -2530,72 +2731,17 @@
     <mergeCell ref="X13:AJ13"/>
     <mergeCell ref="AK13:AV13"/>
     <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="AW21:BA21"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AJ12"/>
-    <mergeCell ref="AK12:AV12"/>
-    <mergeCell ref="AW12:BA12"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="K15:W15"/>
-    <mergeCell ref="X15:AJ15"/>
-    <mergeCell ref="AK15:AV15"/>
-    <mergeCell ref="AW15:BA15"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="X18:AJ18"/>
-    <mergeCell ref="AK18:AV18"/>
-    <mergeCell ref="AW18:BA18"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="A2:I4"/>
-    <mergeCell ref="J2:O4"/>
-    <mergeCell ref="AH2:AL4"/>
-    <mergeCell ref="AM2:AQ4"/>
-    <mergeCell ref="AR2:AV4"/>
-    <mergeCell ref="AW2:BA4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:AG4"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AM1:AQ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:W21"/>
-    <mergeCell ref="X21:AJ21"/>
-    <mergeCell ref="AK21:AV21"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="X6:AJ6"/>
-    <mergeCell ref="AK6:AV6"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AJ10"/>
-    <mergeCell ref="AK10:AV10"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="K17:W17"/>
-    <mergeCell ref="X17:AJ17"/>
-    <mergeCell ref="AK17:AV17"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AJ9"/>
-    <mergeCell ref="AK9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AJ8"/>
-    <mergeCell ref="AK8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="X7:AJ7"/>
-    <mergeCell ref="AK7:AV7"/>
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="K16:W16"/>
-    <mergeCell ref="X16:AJ16"/>
-    <mergeCell ref="AK16:AV16"/>
-    <mergeCell ref="AW16:BA16"/>
+    <mergeCell ref="AW17:BA17"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="X19:AJ19"/>
+    <mergeCell ref="AK19:AV19"/>
+    <mergeCell ref="AW19:BA19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K20:W20"/>
+    <mergeCell ref="X20:AJ20"/>
+    <mergeCell ref="AK20:AV20"/>
+    <mergeCell ref="AW20:BA20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>

--- a/20 開発資料/05.改修管理/150_改修管理_WBSElement追加.xlsx
+++ b/20 開発資料/05.改修管理/150_改修管理_WBSElement追加.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10650" yWindow="1950" windowWidth="15600" windowHeight="10485" tabRatio="886"/>
+    <workbookView xWindow="10650" yWindow="1965" windowWidth="15600" windowHeight="10470" tabRatio="886"/>
   </bookViews>
   <sheets>
     <sheet name="WBS Element追加" sheetId="4" r:id="rId1"/>
+    <sheet name="SAP用CSV抽出画面" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'WBS Element追加'!$1:$6</definedName>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -124,16 +125,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>変更理由</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>完了日</t>
     <rPh sb="0" eb="3">
       <t>カンリョウビ</t>
@@ -656,6 +647,32 @@
     </rPh>
     <rPh sb="61" eb="63">
       <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>追加インデックス
+・IDX_TBL_KOTSUHOTEL_1
+　　COST_CENTER
+　　ACCOUNT_CD
+　　INTERNAL_ORDER
+　　ZETIA_CD
+　　WBS_ELEMENT
+・IDX_TBL_KOTSUHOTEL_2
+　　COST_CENTER
+・IDX_TBL_TAXITICKET_HAKKO_1
+　　KOUENKAI_NO
+　　SEIKYU_NO_TOPTOUR
+　　TKT_ENTA</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -913,6 +930,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -955,15 +981,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="J401K" xfId="1"/>
@@ -977,6 +994,73 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="438150" y="180975"/>
+          <a:ext cx="5581650" cy="2933700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1273,7 +1357,7 @@
       <pane xSplit="48" ySplit="6" topLeftCell="AW7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" sqref="A1:I1"/>
+      <selection pane="bottomRight" activeCell="AW11" sqref="AW11:BA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -1283,246 +1367,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="17" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="14" t="s">
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14" t="s">
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="14" t="s">
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14" t="s">
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AX1" s="14"/>
-      <c r="AY1" s="14"/>
-      <c r="AZ1" s="14"/>
-      <c r="BA1" s="14"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="16">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="19">
         <v>42571</v>
       </c>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="14" t="s">
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="16"/>
-      <c r="AW2" s="14"/>
-      <c r="AX2" s="14"/>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="14"/>
-      <c r="BA2" s="14"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="17"/>
+      <c r="BA2" s="17"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="16"/>
-      <c r="AS3" s="16"/>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="16"/>
-      <c r="AV3" s="16"/>
-      <c r="AW3" s="14"/>
-      <c r="AX3" s="14"/>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="14"/>
-      <c r="BA3" s="14"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="17"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="17"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="19"/>
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="19"/>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="17"/>
+      <c r="AZ3" s="17"/>
+      <c r="BA3" s="17"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="14"/>
-      <c r="AO4" s="14"/>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="14"/>
-      <c r="AR4" s="16"/>
-      <c r="AS4" s="16"/>
-      <c r="AT4" s="16"/>
-      <c r="AU4" s="16"/>
-      <c r="AV4" s="16"/>
-      <c r="AW4" s="14"/>
-      <c r="AX4" s="14"/>
-      <c r="AY4" s="14"/>
-      <c r="AZ4" s="14"/>
-      <c r="BA4" s="14"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="19"/>
+      <c r="AT4" s="19"/>
+      <c r="AU4" s="19"/>
+      <c r="AV4" s="19"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="17"/>
+      <c r="AZ4" s="17"/>
+      <c r="BA4" s="17"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -1547,70 +1631,70 @@
     </row>
     <row r="6" spans="1:59" ht="21.75" customHeight="1" thickBot="1">
       <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13" t="s">
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AX6" s="13"/>
-      <c r="AY6" s="13"/>
-      <c r="AZ6" s="13"/>
-      <c r="BA6" s="13"/>
+      <c r="AX6" s="16"/>
+      <c r="AY6" s="16"/>
+      <c r="AZ6" s="16"/>
+      <c r="BA6" s="16"/>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
@@ -1623,64 +1707,64 @@
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28" t="s">
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="27"/>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="27"/>
-      <c r="AK7" s="28"/>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="28"/>
-      <c r="AP7" s="28"/>
-      <c r="AQ7" s="28"/>
-      <c r="AR7" s="28"/>
-      <c r="AS7" s="28"/>
-      <c r="AT7" s="28"/>
-      <c r="AU7" s="28"/>
-      <c r="AV7" s="28"/>
-      <c r="AW7" s="28"/>
-      <c r="AX7" s="28"/>
-      <c r="AY7" s="28"/>
-      <c r="AZ7" s="28"/>
-      <c r="BA7" s="28"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="13"/>
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="13"/>
+      <c r="AZ7" s="13"/>
+      <c r="BA7" s="13"/>
     </row>
     <row r="8" spans="1:59" s="3" customFormat="1" ht="26.25" customHeight="1">
       <c r="A8" s="7">
@@ -1688,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1699,7 +1783,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -1714,7 +1798,7 @@
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
       <c r="X8" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
@@ -1752,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -1763,7 +1847,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -1778,7 +1862,7 @@
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
@@ -1816,7 +1900,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1827,7 +1911,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -1842,7 +1926,7 @@
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
       <c r="X10" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
@@ -1880,7 +1964,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -1891,7 +1975,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -1906,7 +1990,7 @@
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
       <c r="X11" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
@@ -1944,7 +2028,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -1955,7 +2039,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
@@ -1970,7 +2054,7 @@
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
       <c r="X12" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
@@ -2008,7 +2092,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -2019,7 +2103,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
@@ -2034,7 +2118,7 @@
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
       <c r="X13" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
@@ -2072,7 +2156,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -2083,7 +2167,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
@@ -2098,7 +2182,7 @@
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
       <c r="X14" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
@@ -2136,7 +2220,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -2147,7 +2231,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
@@ -2162,7 +2246,7 @@
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
       <c r="X15" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
@@ -2200,7 +2284,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -2211,7 +2295,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
@@ -2226,7 +2310,7 @@
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
       <c r="X16" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
@@ -2264,7 +2348,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -2275,7 +2359,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
@@ -2290,7 +2374,7 @@
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
       <c r="X17" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
@@ -2328,7 +2412,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -2339,7 +2423,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
@@ -2354,7 +2438,7 @@
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
       <c r="X18" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
@@ -2392,7 +2476,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -2403,7 +2487,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
@@ -2418,7 +2502,7 @@
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
       <c r="X19" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
@@ -2456,7 +2540,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -2467,7 +2551,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
@@ -2482,7 +2566,7 @@
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
@@ -2514,13 +2598,13 @@
       <c r="AZ20" s="11"/>
       <c r="BA20" s="11"/>
     </row>
-    <row r="21" spans="1:53" s="6" customFormat="1" ht="45.75" customHeight="1">
+    <row r="21" spans="1:53" s="6" customFormat="1" ht="150.75" customHeight="1">
       <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -2531,7 +2615,7 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
@@ -2546,7 +2630,7 @@
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
@@ -2560,7 +2644,9 @@
       <c r="AH21" s="10"/>
       <c r="AI21" s="10"/>
       <c r="AJ21" s="10"/>
-      <c r="AK21" s="11"/>
+      <c r="AK21" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="AL21" s="11"/>
       <c r="AM21" s="11"/>
       <c r="AN21" s="11"/>
@@ -2583,92 +2669,124 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="12" t="s">
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
-      <c r="AN22" s="12"/>
-      <c r="AO22" s="12"/>
-      <c r="AP22" s="12"/>
-      <c r="AQ22" s="12"/>
-      <c r="AR22" s="12"/>
-      <c r="AS22" s="12"/>
-      <c r="AT22" s="12"/>
-      <c r="AU22" s="12"/>
-      <c r="AV22" s="12"/>
-      <c r="AW22" s="12"/>
-      <c r="AX22" s="12"/>
-      <c r="AY22" s="12"/>
-      <c r="AZ22" s="12"/>
-      <c r="BA22" s="12"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="15"/>
+      <c r="AN22" s="15"/>
+      <c r="AO22" s="15"/>
+      <c r="AP22" s="15"/>
+      <c r="AQ22" s="15"/>
+      <c r="AR22" s="15"/>
+      <c r="AS22" s="15"/>
+      <c r="AT22" s="15"/>
+      <c r="AU22" s="15"/>
+      <c r="AV22" s="15"/>
+      <c r="AW22" s="15"/>
+      <c r="AX22" s="15"/>
+      <c r="AY22" s="15"/>
+      <c r="AZ22" s="15"/>
+      <c r="BA22" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:W21"/>
-    <mergeCell ref="X21:AJ21"/>
-    <mergeCell ref="AK21:AV21"/>
-    <mergeCell ref="AW21:BA21"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="K16:W16"/>
-    <mergeCell ref="X16:AJ16"/>
-    <mergeCell ref="AK16:AV16"/>
-    <mergeCell ref="AW16:BA16"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="X7:AJ7"/>
-    <mergeCell ref="AK7:AV7"/>
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AJ8"/>
-    <mergeCell ref="AK8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AJ9"/>
-    <mergeCell ref="AK9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K20:W20"/>
+    <mergeCell ref="X20:AJ20"/>
+    <mergeCell ref="AK20:AV20"/>
+    <mergeCell ref="AW20:BA20"/>
+    <mergeCell ref="AW17:BA17"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="X19:AJ19"/>
+    <mergeCell ref="AK19:AV19"/>
+    <mergeCell ref="AW19:BA19"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="K14:W14"/>
+    <mergeCell ref="X14:AJ14"/>
+    <mergeCell ref="AK14:AV14"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AJ11"/>
+    <mergeCell ref="AK11:AV11"/>
+    <mergeCell ref="AW11:BA11"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="K13:W13"/>
+    <mergeCell ref="X13:AJ13"/>
+    <mergeCell ref="AK13:AV13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="AW22:BA22"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AJ12"/>
+    <mergeCell ref="AK12:AV12"/>
+    <mergeCell ref="AW12:BA12"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="K15:W15"/>
+    <mergeCell ref="X15:AJ15"/>
+    <mergeCell ref="AK15:AV15"/>
+    <mergeCell ref="AW15:BA15"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="X18:AJ18"/>
+    <mergeCell ref="AK18:AV18"/>
+    <mergeCell ref="AW18:BA18"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="AH2:AL4"/>
+    <mergeCell ref="AM2:AQ4"/>
+    <mergeCell ref="AR2:AV4"/>
+    <mergeCell ref="AW2:BA4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:AG4"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
     <mergeCell ref="B22:J22"/>
     <mergeCell ref="K22:W22"/>
     <mergeCell ref="X22:AJ22"/>
@@ -2685,69 +2803,54 @@
     <mergeCell ref="K17:W17"/>
     <mergeCell ref="X17:AJ17"/>
     <mergeCell ref="AK17:AV17"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="A2:I4"/>
-    <mergeCell ref="J2:O4"/>
-    <mergeCell ref="AH2:AL4"/>
-    <mergeCell ref="AM2:AQ4"/>
-    <mergeCell ref="AR2:AV4"/>
-    <mergeCell ref="AW2:BA4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:AG4"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AM1:AQ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="AW22:BA22"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AJ12"/>
-    <mergeCell ref="AK12:AV12"/>
-    <mergeCell ref="AW12:BA12"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="K15:W15"/>
-    <mergeCell ref="X15:AJ15"/>
-    <mergeCell ref="AK15:AV15"/>
-    <mergeCell ref="AW15:BA15"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="X18:AJ18"/>
-    <mergeCell ref="AK18:AV18"/>
-    <mergeCell ref="AW18:BA18"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="K14:W14"/>
-    <mergeCell ref="X14:AJ14"/>
-    <mergeCell ref="AK14:AV14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AJ11"/>
-    <mergeCell ref="AK11:AV11"/>
-    <mergeCell ref="AW11:BA11"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="K13:W13"/>
-    <mergeCell ref="X13:AJ13"/>
-    <mergeCell ref="AK13:AV13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="AW17:BA17"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="X19:AJ19"/>
-    <mergeCell ref="AK19:AV19"/>
-    <mergeCell ref="AW19:BA19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K20:W20"/>
-    <mergeCell ref="X20:AJ20"/>
-    <mergeCell ref="AK20:AV20"/>
-    <mergeCell ref="AW20:BA20"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AJ9"/>
+    <mergeCell ref="AK9:AV9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AJ8"/>
+    <mergeCell ref="AK8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="X7:AJ7"/>
+    <mergeCell ref="AK7:AV7"/>
+    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="K16:W16"/>
+    <mergeCell ref="X16:AJ16"/>
+    <mergeCell ref="AK16:AV16"/>
+    <mergeCell ref="AW16:BA16"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:W21"/>
+    <mergeCell ref="X21:AJ21"/>
+    <mergeCell ref="AK21:AV21"/>
+    <mergeCell ref="AW21:BA21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" orientation="landscape" cellComments="asDisplayed" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" cellComments="asDisplayed" verticalDpi="360" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/20 開発資料/05.改修管理/150_改修管理_WBSElement追加.xlsx
+++ b/20 開発資料/05.改修管理/150_改修管理_WBSElement追加.xlsx
@@ -78,14 +78,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>トップツアー株式会社
-Monolith</t>
-    <rPh sb="6" eb="10">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>変更・確認項目　管理表</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
@@ -673,6 +665,17 @@
 　　TKT_ENTA</t>
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東武トップツアーズ株式会社
+Monolith</t>
+    <rPh sb="0" eb="2">
+      <t>トウブ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>カブシキガイシャ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -930,15 +933,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -980,6 +974,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1357,7 +1360,7 @@
       <pane xSplit="48" ySplit="6" topLeftCell="AW7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AW11" sqref="AW11:BA11"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -1367,246 +1370,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="17" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17" t="s">
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17" t="s">
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17" t="s">
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
+      <c r="AX1" s="14"/>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="14"/>
+      <c r="BA1" s="14"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="19">
+      <c r="A2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="16">
         <v>42571</v>
       </c>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="17" t="s">
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="17"/>
-      <c r="BA2" s="17"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="14"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="17"/>
-      <c r="AN3" s="17"/>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="17"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="19"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="17"/>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="17"/>
-      <c r="AZ3" s="17"/>
-      <c r="BA3" s="17"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="17"/>
-      <c r="AO4" s="17"/>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="17"/>
-      <c r="AR4" s="19"/>
-      <c r="AS4" s="19"/>
-      <c r="AT4" s="19"/>
-      <c r="AU4" s="19"/>
-      <c r="AV4" s="19"/>
-      <c r="AW4" s="17"/>
-      <c r="AX4" s="17"/>
-      <c r="AY4" s="17"/>
-      <c r="AZ4" s="17"/>
-      <c r="BA4" s="17"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="14"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -1631,70 +1634,70 @@
     </row>
     <row r="6" spans="1:59" ht="21.75" customHeight="1" thickBot="1">
       <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16" t="s">
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="16"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="16"/>
-      <c r="AP6" s="16"/>
-      <c r="AQ6" s="16"/>
-      <c r="AR6" s="16"/>
-      <c r="AS6" s="16"/>
-      <c r="AT6" s="16"/>
-      <c r="AU6" s="16"/>
-      <c r="AV6" s="16"/>
-      <c r="AW6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="AX6" s="16"/>
-      <c r="AY6" s="16"/>
-      <c r="AZ6" s="16"/>
-      <c r="BA6" s="16"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="13"/>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
@@ -1707,64 +1710,64 @@
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13" t="s">
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
-      <c r="AV7" s="13"/>
-      <c r="AW7" s="13"/>
-      <c r="AX7" s="13"/>
-      <c r="AY7" s="13"/>
-      <c r="AZ7" s="13"/>
-      <c r="BA7" s="13"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28"/>
+      <c r="AQ7" s="28"/>
+      <c r="AR7" s="28"/>
+      <c r="AS7" s="28"/>
+      <c r="AT7" s="28"/>
+      <c r="AU7" s="28"/>
+      <c r="AV7" s="28"/>
+      <c r="AW7" s="28"/>
+      <c r="AX7" s="28"/>
+      <c r="AY7" s="28"/>
+      <c r="AZ7" s="28"/>
+      <c r="BA7" s="28"/>
     </row>
     <row r="8" spans="1:59" s="3" customFormat="1" ht="26.25" customHeight="1">
       <c r="A8" s="7">
@@ -1772,7 +1775,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1783,7 +1786,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -1798,7 +1801,7 @@
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
       <c r="X8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
@@ -1836,7 +1839,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -1847,7 +1850,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -1862,7 +1865,7 @@
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
@@ -1900,7 +1903,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1911,7 +1914,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -1926,7 +1929,7 @@
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
       <c r="X10" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
@@ -1964,7 +1967,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -1975,7 +1978,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -1990,7 +1993,7 @@
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
       <c r="X11" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
@@ -2028,7 +2031,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -2039,7 +2042,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
@@ -2054,7 +2057,7 @@
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
       <c r="X12" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
@@ -2092,7 +2095,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -2103,7 +2106,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
@@ -2118,7 +2121,7 @@
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
       <c r="X13" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
@@ -2156,7 +2159,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -2167,7 +2170,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
@@ -2182,7 +2185,7 @@
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
       <c r="X14" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
@@ -2220,7 +2223,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -2231,7 +2234,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
@@ -2246,7 +2249,7 @@
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
       <c r="X15" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
@@ -2284,7 +2287,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -2295,7 +2298,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
@@ -2310,7 +2313,7 @@
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
       <c r="X16" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
@@ -2348,7 +2351,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -2359,7 +2362,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
@@ -2374,7 +2377,7 @@
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
       <c r="X17" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
@@ -2412,7 +2415,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -2423,7 +2426,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
@@ -2438,7 +2441,7 @@
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
       <c r="X18" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
@@ -2476,7 +2479,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -2487,7 +2490,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
@@ -2502,7 +2505,7 @@
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
       <c r="X19" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
@@ -2540,7 +2543,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -2551,7 +2554,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
@@ -2566,7 +2569,7 @@
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
@@ -2604,7 +2607,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -2615,7 +2618,7 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
@@ -2630,7 +2633,7 @@
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
@@ -2645,7 +2648,7 @@
       <c r="AI21" s="10"/>
       <c r="AJ21" s="10"/>
       <c r="AK21" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL21" s="11"/>
       <c r="AM21" s="11"/>
@@ -2669,78 +2672,138 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15" t="s">
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="14"/>
-      <c r="AI22" s="14"/>
-      <c r="AJ22" s="14"/>
-      <c r="AK22" s="15"/>
-      <c r="AL22" s="15"/>
-      <c r="AM22" s="15"/>
-      <c r="AN22" s="15"/>
-      <c r="AO22" s="15"/>
-      <c r="AP22" s="15"/>
-      <c r="AQ22" s="15"/>
-      <c r="AR22" s="15"/>
-      <c r="AS22" s="15"/>
-      <c r="AT22" s="15"/>
-      <c r="AU22" s="15"/>
-      <c r="AV22" s="15"/>
-      <c r="AW22" s="15"/>
-      <c r="AX22" s="15"/>
-      <c r="AY22" s="15"/>
-      <c r="AZ22" s="15"/>
-      <c r="BA22" s="15"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
+      <c r="AY22" s="12"/>
+      <c r="AZ22" s="12"/>
+      <c r="BA22" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K20:W20"/>
-    <mergeCell ref="X20:AJ20"/>
-    <mergeCell ref="AK20:AV20"/>
-    <mergeCell ref="AW20:BA20"/>
-    <mergeCell ref="AW17:BA17"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="X19:AJ19"/>
-    <mergeCell ref="AK19:AV19"/>
-    <mergeCell ref="AW19:BA19"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:W21"/>
+    <mergeCell ref="X21:AJ21"/>
+    <mergeCell ref="AK21:AV21"/>
+    <mergeCell ref="AW21:BA21"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="K16:W16"/>
+    <mergeCell ref="X16:AJ16"/>
+    <mergeCell ref="AK16:AV16"/>
+    <mergeCell ref="AW16:BA16"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="X7:AJ7"/>
+    <mergeCell ref="AK7:AV7"/>
+    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AJ8"/>
+    <mergeCell ref="AK8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AJ9"/>
+    <mergeCell ref="AK9:AV9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="X22:AJ22"/>
+    <mergeCell ref="AK22:AV22"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="X6:AJ6"/>
+    <mergeCell ref="AK6:AV6"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AJ10"/>
+    <mergeCell ref="AK10:AV10"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="K17:W17"/>
+    <mergeCell ref="X17:AJ17"/>
+    <mergeCell ref="AK17:AV17"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="AH2:AL4"/>
+    <mergeCell ref="AM2:AQ4"/>
+    <mergeCell ref="AR2:AV4"/>
+    <mergeCell ref="AW2:BA4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:AG4"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="AW22:BA22"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AJ12"/>
+    <mergeCell ref="AK12:AV12"/>
+    <mergeCell ref="AW12:BA12"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="K15:W15"/>
+    <mergeCell ref="X15:AJ15"/>
+    <mergeCell ref="AK15:AV15"/>
+    <mergeCell ref="AW15:BA15"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="X18:AJ18"/>
+    <mergeCell ref="AK18:AV18"/>
+    <mergeCell ref="AW18:BA18"/>
     <mergeCell ref="AW10:BA10"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="K14:W14"/>
@@ -2757,77 +2820,17 @@
     <mergeCell ref="X13:AJ13"/>
     <mergeCell ref="AK13:AV13"/>
     <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="AW22:BA22"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AJ12"/>
-    <mergeCell ref="AK12:AV12"/>
-    <mergeCell ref="AW12:BA12"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="K15:W15"/>
-    <mergeCell ref="X15:AJ15"/>
-    <mergeCell ref="AK15:AV15"/>
-    <mergeCell ref="AW15:BA15"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="X18:AJ18"/>
-    <mergeCell ref="AK18:AV18"/>
-    <mergeCell ref="AW18:BA18"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="A2:I4"/>
-    <mergeCell ref="J2:O4"/>
-    <mergeCell ref="AH2:AL4"/>
-    <mergeCell ref="AM2:AQ4"/>
-    <mergeCell ref="AR2:AV4"/>
-    <mergeCell ref="AW2:BA4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:AG4"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AM1:AQ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:W22"/>
-    <mergeCell ref="X22:AJ22"/>
-    <mergeCell ref="AK22:AV22"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="X6:AJ6"/>
-    <mergeCell ref="AK6:AV6"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AJ10"/>
-    <mergeCell ref="AK10:AV10"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="K17:W17"/>
-    <mergeCell ref="X17:AJ17"/>
-    <mergeCell ref="AK17:AV17"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AJ9"/>
-    <mergeCell ref="AK9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AJ8"/>
-    <mergeCell ref="AK8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="X7:AJ7"/>
-    <mergeCell ref="AK7:AV7"/>
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="K16:W16"/>
-    <mergeCell ref="X16:AJ16"/>
-    <mergeCell ref="AK16:AV16"/>
-    <mergeCell ref="AW16:BA16"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:W21"/>
-    <mergeCell ref="X21:AJ21"/>
-    <mergeCell ref="AK21:AV21"/>
-    <mergeCell ref="AW21:BA21"/>
+    <mergeCell ref="AW17:BA17"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="X19:AJ19"/>
+    <mergeCell ref="AK19:AV19"/>
+    <mergeCell ref="AW19:BA19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K20:W20"/>
+    <mergeCell ref="X20:AJ20"/>
+    <mergeCell ref="AK20:AV20"/>
+    <mergeCell ref="AW20:BA20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>

--- a/20 開発資料/05.改修管理/150_改修管理_WBSElement追加.xlsx
+++ b/20 開発資料/05.改修管理/150_改修管理_WBSElement追加.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10650" yWindow="1965" windowWidth="15600" windowHeight="10470" tabRatio="886"/>
+    <workbookView xWindow="10650" yWindow="1980" windowWidth="15600" windowHeight="10455" tabRatio="886"/>
   </bookViews>
   <sheets>
     <sheet name="WBS Element追加" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -427,62 +427,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>出力項目として講演会テーブルのWBS Element(5列目)を追加</t>
-    <rPh sb="0" eb="2">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>コウエンカイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>出力項目として講演会テーブルのWBS Element(5列目)と交通宿泊テーブルのWBS Element(16列目)を追加</t>
-    <rPh sb="0" eb="2">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>コウエンカイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>コウツウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シュクハク</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>社員旅費一覧CSV(Bayer.vbproj)</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
@@ -519,40 +463,6 @@
   </si>
   <si>
     <t>TaxiMeisaiCsv.aspx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>出力項目として講演会テーブルのWBS Element(3列目)と交通宿泊テーブルのWBS Element(6列目)を追加</t>
-    <rPh sb="0" eb="2">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>コウエンカイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>コウツウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シュクハク</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ツイカ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -676,6 +586,225 @@
     </rPh>
     <rPh sb="9" eb="13">
       <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出力項目として講演会テーブルのWBS Element(48列目)を追加</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出力項目として講演会テーブルのWBS Element(50列目,55列目)を追加</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">出力項目として講演会テーブルのWBS Element(50･55列目)を追加
+参加者テーブルのタクチケTTT備考(65列目)とタクチケ備考(66･67列目)を追加
+タクチケ発行テーブルの発地･着地(63･64列目)を追加
+</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ハツ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>精算金額入力(Bayer.vbproj)</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SeisanRegist.aspx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①参加者一覧CSV
+　出力項目として講演会テーブルのWBS Element(33列目)を追加
+</t>
+    <rPh sb="1" eb="4">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出力項目として講演会テーブルのWBS Element(29列目)とタクチケ発行テーブルの実車発地(19列目)、実車着地(20列目)を追加</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウエンカイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジッシャ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ハツ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ジッシャ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1354,13 +1483,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BG22"/>
+  <dimension ref="A1:BG23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="48" ySplit="6" topLeftCell="AW7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -1440,7 +1569,7 @@
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1678,7 +1807,7 @@
       <c r="AI6" s="13"/>
       <c r="AJ6" s="13"/>
       <c r="AK6" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AL6" s="13"/>
       <c r="AM6" s="13"/>
@@ -1771,7 +1900,7 @@
     </row>
     <row r="8" spans="1:59" s="3" customFormat="1" ht="26.25" customHeight="1">
       <c r="A8" s="7">
-        <f t="shared" ref="A8:A22" si="0">ROW()-6</f>
+        <f t="shared" ref="A8:A23" si="0">ROW()-6</f>
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2031,7 +2160,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -2287,7 +2416,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -2298,7 +2427,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
@@ -2313,7 +2442,7 @@
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
       <c r="X16" s="10" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
@@ -2377,7 +2506,7 @@
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
       <c r="X17" s="10" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
@@ -2409,7 +2538,7 @@
       <c r="AZ17" s="11"/>
       <c r="BA17" s="11"/>
     </row>
-    <row r="18" spans="1:53" s="6" customFormat="1" ht="45.75" customHeight="1">
+    <row r="18" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1">
       <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2441,7 +2570,7 @@
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
       <c r="X18" s="10" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
@@ -2473,13 +2602,13 @@
       <c r="AZ18" s="11"/>
       <c r="BA18" s="11"/>
     </row>
-    <row r="19" spans="1:53" s="6" customFormat="1" ht="45.75" customHeight="1">
+    <row r="19" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1">
       <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -2490,7 +2619,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
@@ -2505,7 +2634,7 @@
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
       <c r="X19" s="10" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
@@ -2537,13 +2666,13 @@
       <c r="AZ19" s="11"/>
       <c r="BA19" s="11"/>
     </row>
-    <row r="20" spans="1:53" s="6" customFormat="1" ht="45.75" customHeight="1">
+    <row r="20" spans="1:53" s="6" customFormat="1" ht="79.5" customHeight="1">
       <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -2554,7 +2683,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
@@ -2569,7 +2698,7 @@
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="10" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
@@ -2601,13 +2730,13 @@
       <c r="AZ20" s="11"/>
       <c r="BA20" s="11"/>
     </row>
-    <row r="21" spans="1:53" s="6" customFormat="1" ht="150.75" customHeight="1">
+    <row r="21" spans="1:53" s="6" customFormat="1" ht="79.5" customHeight="1">
       <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -2618,7 +2747,7 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
@@ -2633,7 +2762,7 @@
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="10" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
@@ -2647,9 +2776,7 @@
       <c r="AH21" s="10"/>
       <c r="AI21" s="10"/>
       <c r="AJ21" s="10"/>
-      <c r="AK21" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="AK21" s="11"/>
       <c r="AL21" s="11"/>
       <c r="AM21" s="11"/>
       <c r="AN21" s="11"/>
@@ -2667,113 +2794,165 @@
       <c r="AZ21" s="11"/>
       <c r="BA21" s="11"/>
     </row>
-    <row r="22" spans="1:53" s="5" customFormat="1" ht="42" customHeight="1">
-      <c r="A22" s="8">
+    <row r="22" spans="1:53" s="6" customFormat="1" ht="150.75" customHeight="1">
+      <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="12" t="s">
+      <c r="B22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
-      <c r="AN22" s="12"/>
-      <c r="AO22" s="12"/>
-      <c r="AP22" s="12"/>
-      <c r="AQ22" s="12"/>
-      <c r="AR22" s="12"/>
-      <c r="AS22" s="12"/>
-      <c r="AT22" s="12"/>
-      <c r="AU22" s="12"/>
-      <c r="AV22" s="12"/>
-      <c r="AW22" s="12"/>
-      <c r="AX22" s="12"/>
-      <c r="AY22" s="12"/>
-      <c r="AZ22" s="12"/>
-      <c r="BA22" s="12"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="11"/>
+      <c r="AN22" s="11"/>
+      <c r="AO22" s="11"/>
+      <c r="AP22" s="11"/>
+      <c r="AQ22" s="11"/>
+      <c r="AR22" s="11"/>
+      <c r="AS22" s="11"/>
+      <c r="AT22" s="11"/>
+      <c r="AU22" s="11"/>
+      <c r="AV22" s="11"/>
+      <c r="AW22" s="11"/>
+      <c r="AX22" s="11"/>
+      <c r="AY22" s="11"/>
+      <c r="AZ22" s="11"/>
+      <c r="BA22" s="11"/>
+    </row>
+    <row r="23" spans="1:53" s="5" customFormat="1" ht="42" customHeight="1">
+      <c r="A23" s="8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="12"/>
+      <c r="AS23" s="12"/>
+      <c r="AT23" s="12"/>
+      <c r="AU23" s="12"/>
+      <c r="AV23" s="12"/>
+      <c r="AW23" s="12"/>
+      <c r="AX23" s="12"/>
+      <c r="AY23" s="12"/>
+      <c r="AZ23" s="12"/>
+      <c r="BA23" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:W21"/>
-    <mergeCell ref="X21:AJ21"/>
-    <mergeCell ref="AK21:AV21"/>
-    <mergeCell ref="AW21:BA21"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="K16:W16"/>
-    <mergeCell ref="X16:AJ16"/>
-    <mergeCell ref="AK16:AV16"/>
-    <mergeCell ref="AW16:BA16"/>
+  <mergeCells count="103">
+    <mergeCell ref="AK22:AV22"/>
+    <mergeCell ref="AW22:BA22"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AJ8"/>
+    <mergeCell ref="AK8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="K7:W7"/>
     <mergeCell ref="X7:AJ7"/>
     <mergeCell ref="AK7:AV7"/>
     <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AJ8"/>
-    <mergeCell ref="AK8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AJ9"/>
-    <mergeCell ref="AK9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:W22"/>
-    <mergeCell ref="X22:AJ22"/>
-    <mergeCell ref="AK22:AV22"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="X6:AJ6"/>
-    <mergeCell ref="AK6:AV6"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="K10:W10"/>
     <mergeCell ref="X10:AJ10"/>
     <mergeCell ref="AK10:AV10"/>
     <mergeCell ref="B17:J17"/>
     <mergeCell ref="K17:W17"/>
     <mergeCell ref="X17:AJ17"/>
     <mergeCell ref="AK17:AV17"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AJ9"/>
+    <mergeCell ref="AK9:AV9"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="K16:W16"/>
+    <mergeCell ref="X16:AJ16"/>
+    <mergeCell ref="AK16:AV16"/>
     <mergeCell ref="AW6:BA6"/>
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="A2:I4"/>
@@ -2788,7 +2967,11 @@
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AM1:AQ1"/>
     <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="AW22:BA22"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="X6:AJ6"/>
+    <mergeCell ref="AK6:AV6"/>
+    <mergeCell ref="AW23:BA23"/>
     <mergeCell ref="B12:J12"/>
     <mergeCell ref="K12:W12"/>
     <mergeCell ref="X12:AJ12"/>
@@ -2804,6 +2987,20 @@
     <mergeCell ref="X18:AJ18"/>
     <mergeCell ref="AK18:AV18"/>
     <mergeCell ref="AW18:BA18"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="X23:AJ23"/>
+    <mergeCell ref="AK23:AV23"/>
+    <mergeCell ref="AW16:BA16"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="X22:AJ22"/>
+    <mergeCell ref="AW17:BA17"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="X19:AJ19"/>
+    <mergeCell ref="AK19:AV19"/>
+    <mergeCell ref="AW19:BA19"/>
     <mergeCell ref="AW10:BA10"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="K14:W14"/>
@@ -2820,12 +3017,13 @@
     <mergeCell ref="X13:AJ13"/>
     <mergeCell ref="AK13:AV13"/>
     <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="AW17:BA17"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="X19:AJ19"/>
-    <mergeCell ref="AK19:AV19"/>
-    <mergeCell ref="AW19:BA19"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:W21"/>
+    <mergeCell ref="X21:AJ21"/>
+    <mergeCell ref="AK21:AV21"/>
+    <mergeCell ref="AW21:BA21"/>
     <mergeCell ref="B20:J20"/>
     <mergeCell ref="K20:W20"/>
     <mergeCell ref="X20:AJ20"/>

--- a/20 開発資料/05.改修管理/150_改修管理_WBSElement追加.xlsx
+++ b/20 開発資料/05.改修管理/150_改修管理_WBSElement追加.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -612,34 +612,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>出力項目として講演会テーブルのWBS Element(50列目,55列目)を追加</t>
-    <rPh sb="0" eb="2">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>コウエンカイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">出力項目として講演会テーブルのWBS Element(50･55列目)を追加
 参加者テーブルのタクチケTTT備考(65列目)とタクチケ備考(66･67列目)を追加
 タクチケ発行テーブルの発地･着地(63･64列目)を追加
@@ -757,54 +729,45 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>出力項目として講演会テーブルのWBS Element(29列目)とタクチケ発行テーブルの実車発地(19列目)、実車着地(20列目)を追加</t>
+    <t>改修依頼書「★①MTG毎_台帳（参加者・社員・タクチケ・航空券）_項目案_20160729恵和さんへ.xlsx」に従って、CSVレイアウト変更</t>
     <rPh sb="0" eb="2">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>イライショ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ダイチョウ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>コウクウケン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
       <t>コウモク</t>
     </rPh>
-    <rPh sb="7" eb="10">
-      <t>コウエンカイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ジッシャ</t>
+    <rPh sb="35" eb="36">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ケイ</t>
     </rPh>
     <rPh sb="46" eb="47">
-      <t>ハツ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ジッシャ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>チャクチ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ツイカ</t>
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1031,7 +994,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1062,7 +1025,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1105,12 +1071,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1486,10 +1452,10 @@
   <dimension ref="A1:BG23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="48" ySplit="6" topLeftCell="AW7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="48" ySplit="6" topLeftCell="AW16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" sqref="A1:I1"/>
+      <selection pane="bottomRight" activeCell="AW20" sqref="AW20:BA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -1499,246 +1465,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="17" t="s">
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="14" t="s">
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14" t="s">
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="14" t="s">
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14" t="s">
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AX1" s="14"/>
-      <c r="AY1" s="14"/>
-      <c r="AZ1" s="14"/>
-      <c r="BA1" s="14"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="15"/>
+      <c r="AZ1" s="15"/>
+      <c r="BA1" s="15"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="16">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="17">
         <v>42571</v>
       </c>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="14" t="s">
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="16"/>
-      <c r="AW2" s="14"/>
-      <c r="AX2" s="14"/>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="14"/>
-      <c r="BA2" s="14"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="16"/>
-      <c r="AS3" s="16"/>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="16"/>
-      <c r="AV3" s="16"/>
-      <c r="AW3" s="14"/>
-      <c r="AX3" s="14"/>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="14"/>
-      <c r="BA3" s="14"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="17"/>
+      <c r="AS3" s="17"/>
+      <c r="AT3" s="17"/>
+      <c r="AU3" s="17"/>
+      <c r="AV3" s="17"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="14"/>
-      <c r="AO4" s="14"/>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="14"/>
-      <c r="AR4" s="16"/>
-      <c r="AS4" s="16"/>
-      <c r="AT4" s="16"/>
-      <c r="AU4" s="16"/>
-      <c r="AV4" s="16"/>
-      <c r="AW4" s="14"/>
-      <c r="AX4" s="14"/>
-      <c r="AY4" s="14"/>
-      <c r="AZ4" s="14"/>
-      <c r="BA4" s="14"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -1765,68 +1731,68 @@
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13" t="s">
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13" t="s">
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13" t="s">
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AX6" s="13"/>
-      <c r="AY6" s="13"/>
-      <c r="AZ6" s="13"/>
-      <c r="BA6" s="13"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
@@ -1839,64 +1805,64 @@
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="27" t="s">
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="27"/>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="27"/>
-      <c r="AK7" s="28"/>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="28"/>
-      <c r="AP7" s="28"/>
-      <c r="AQ7" s="28"/>
-      <c r="AR7" s="28"/>
-      <c r="AS7" s="28"/>
-      <c r="AT7" s="28"/>
-      <c r="AU7" s="28"/>
-      <c r="AV7" s="28"/>
-      <c r="AW7" s="28"/>
-      <c r="AX7" s="28"/>
-      <c r="AY7" s="28"/>
-      <c r="AZ7" s="28"/>
-      <c r="BA7" s="28"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="13"/>
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="13"/>
+      <c r="AZ7" s="13"/>
+      <c r="BA7" s="13"/>
     </row>
     <row r="8" spans="1:59" s="3" customFormat="1" ht="26.25" customHeight="1">
       <c r="A8" s="7">
@@ -2442,7 +2408,7 @@
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
       <c r="X16" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
@@ -2468,7 +2434,9 @@
       <c r="AT16" s="11"/>
       <c r="AU16" s="11"/>
       <c r="AV16" s="11"/>
-      <c r="AW16" s="11"/>
+      <c r="AW16" s="29">
+        <v>42585</v>
+      </c>
       <c r="AX16" s="11"/>
       <c r="AY16" s="11"/>
       <c r="AZ16" s="11"/>
@@ -2538,7 +2506,7 @@
       <c r="AZ17" s="11"/>
       <c r="BA17" s="11"/>
     </row>
-    <row r="18" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1">
+    <row r="18" spans="1:53" s="6" customFormat="1" ht="45.75" customHeight="1">
       <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2570,7 +2538,7 @@
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
       <c r="X18" s="10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
@@ -2596,13 +2564,15 @@
       <c r="AT18" s="11"/>
       <c r="AU18" s="11"/>
       <c r="AV18" s="11"/>
-      <c r="AW18" s="11"/>
+      <c r="AW18" s="29">
+        <v>42585</v>
+      </c>
       <c r="AX18" s="11"/>
       <c r="AY18" s="11"/>
       <c r="AZ18" s="11"/>
       <c r="BA18" s="11"/>
     </row>
-    <row r="19" spans="1:53" s="6" customFormat="1" ht="27" customHeight="1">
+    <row r="19" spans="1:53" s="6" customFormat="1" ht="45.75" customHeight="1">
       <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2634,7 +2604,7 @@
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
       <c r="X19" s="10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
@@ -2660,7 +2630,9 @@
       <c r="AT19" s="11"/>
       <c r="AU19" s="11"/>
       <c r="AV19" s="11"/>
-      <c r="AW19" s="11"/>
+      <c r="AW19" s="29">
+        <v>42585</v>
+      </c>
       <c r="AX19" s="11"/>
       <c r="AY19" s="11"/>
       <c r="AZ19" s="11"/>
@@ -2698,7 +2670,7 @@
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
@@ -2736,7 +2708,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -2747,7 +2719,7 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
@@ -2762,7 +2734,7 @@
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
@@ -2865,67 +2837,146 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="12" t="s">
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="26" t="s">
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="26"/>
-      <c r="AI23" s="26"/>
-      <c r="AJ23" s="26"/>
-      <c r="AK23" s="12"/>
-      <c r="AL23" s="12"/>
-      <c r="AM23" s="12"/>
-      <c r="AN23" s="12"/>
-      <c r="AO23" s="12"/>
-      <c r="AP23" s="12"/>
-      <c r="AQ23" s="12"/>
-      <c r="AR23" s="12"/>
-      <c r="AS23" s="12"/>
-      <c r="AT23" s="12"/>
-      <c r="AU23" s="12"/>
-      <c r="AV23" s="12"/>
-      <c r="AW23" s="12"/>
-      <c r="AX23" s="12"/>
-      <c r="AY23" s="12"/>
-      <c r="AZ23" s="12"/>
-      <c r="BA23" s="12"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="27"/>
+      <c r="AO23" s="27"/>
+      <c r="AP23" s="27"/>
+      <c r="AQ23" s="27"/>
+      <c r="AR23" s="27"/>
+      <c r="AS23" s="27"/>
+      <c r="AT23" s="27"/>
+      <c r="AU23" s="27"/>
+      <c r="AV23" s="27"/>
+      <c r="AW23" s="27"/>
+      <c r="AX23" s="27"/>
+      <c r="AY23" s="27"/>
+      <c r="AZ23" s="27"/>
+      <c r="BA23" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:W21"/>
+    <mergeCell ref="X21:AJ21"/>
+    <mergeCell ref="AK21:AV21"/>
+    <mergeCell ref="AW21:BA21"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K20:W20"/>
+    <mergeCell ref="X20:AJ20"/>
+    <mergeCell ref="AK20:AV20"/>
+    <mergeCell ref="AW20:BA20"/>
+    <mergeCell ref="AW17:BA17"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="X19:AJ19"/>
+    <mergeCell ref="AK19:AV19"/>
+    <mergeCell ref="AW19:BA19"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="K14:W14"/>
+    <mergeCell ref="X14:AJ14"/>
+    <mergeCell ref="AK14:AV14"/>
+    <mergeCell ref="AW14:BA14"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AJ11"/>
+    <mergeCell ref="AK11:AV11"/>
+    <mergeCell ref="AW11:BA11"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="K13:W13"/>
+    <mergeCell ref="X13:AJ13"/>
+    <mergeCell ref="AK13:AV13"/>
+    <mergeCell ref="AW13:BA13"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="AW23:BA23"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AJ12"/>
+    <mergeCell ref="AK12:AV12"/>
+    <mergeCell ref="AW12:BA12"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="K15:W15"/>
+    <mergeCell ref="X15:AJ15"/>
+    <mergeCell ref="AK15:AV15"/>
+    <mergeCell ref="AW15:BA15"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="X18:AJ18"/>
+    <mergeCell ref="AK18:AV18"/>
+    <mergeCell ref="AW18:BA18"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="X23:AJ23"/>
+    <mergeCell ref="AK23:AV23"/>
+    <mergeCell ref="AW16:BA16"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="X22:AJ22"/>
+    <mergeCell ref="K16:W16"/>
+    <mergeCell ref="X16:AJ16"/>
+    <mergeCell ref="AK16:AV16"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="AH2:AL4"/>
+    <mergeCell ref="AM2:AQ4"/>
+    <mergeCell ref="AR2:AV4"/>
+    <mergeCell ref="AW2:BA4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:AG4"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="X6:AJ6"/>
+    <mergeCell ref="AK6:AV6"/>
     <mergeCell ref="AK22:AV22"/>
     <mergeCell ref="AW22:BA22"/>
     <mergeCell ref="AW9:BA9"/>
@@ -2950,85 +3001,6 @@
     <mergeCell ref="X9:AJ9"/>
     <mergeCell ref="AK9:AV9"/>
     <mergeCell ref="B16:J16"/>
-    <mergeCell ref="K16:W16"/>
-    <mergeCell ref="X16:AJ16"/>
-    <mergeCell ref="AK16:AV16"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="A2:I4"/>
-    <mergeCell ref="J2:O4"/>
-    <mergeCell ref="AH2:AL4"/>
-    <mergeCell ref="AM2:AQ4"/>
-    <mergeCell ref="AR2:AV4"/>
-    <mergeCell ref="AW2:BA4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:AG4"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AM1:AQ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="X6:AJ6"/>
-    <mergeCell ref="AK6:AV6"/>
-    <mergeCell ref="AW23:BA23"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AJ12"/>
-    <mergeCell ref="AK12:AV12"/>
-    <mergeCell ref="AW12:BA12"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="K15:W15"/>
-    <mergeCell ref="X15:AJ15"/>
-    <mergeCell ref="AK15:AV15"/>
-    <mergeCell ref="AW15:BA15"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="X18:AJ18"/>
-    <mergeCell ref="AK18:AV18"/>
-    <mergeCell ref="AW18:BA18"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="X23:AJ23"/>
-    <mergeCell ref="AK23:AV23"/>
-    <mergeCell ref="AW16:BA16"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:W22"/>
-    <mergeCell ref="X22:AJ22"/>
-    <mergeCell ref="AW17:BA17"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="X19:AJ19"/>
-    <mergeCell ref="AK19:AV19"/>
-    <mergeCell ref="AW19:BA19"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="K14:W14"/>
-    <mergeCell ref="X14:AJ14"/>
-    <mergeCell ref="AK14:AV14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AJ11"/>
-    <mergeCell ref="AK11:AV11"/>
-    <mergeCell ref="AW11:BA11"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="K13:W13"/>
-    <mergeCell ref="X13:AJ13"/>
-    <mergeCell ref="AK13:AV13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:W21"/>
-    <mergeCell ref="X21:AJ21"/>
-    <mergeCell ref="AK21:AV21"/>
-    <mergeCell ref="AW21:BA21"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K20:W20"/>
-    <mergeCell ref="X20:AJ20"/>
-    <mergeCell ref="AK20:AV20"/>
-    <mergeCell ref="AW20:BA20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>

--- a/20 開発資料/05.改修管理/150_改修管理_WBSElement追加.xlsx
+++ b/20 開発資料/05.改修管理/150_改修管理_WBSElement追加.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10650" yWindow="1980" windowWidth="15600" windowHeight="10455" tabRatio="886"/>
+    <workbookView xWindow="10650" yWindow="1995" windowWidth="15600" windowHeight="10440" tabRatio="886"/>
   </bookViews>
   <sheets>
     <sheet name="WBS Element追加" sheetId="4" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'WBS Element追加'!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1025,11 +1025,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1070,13 +1073,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1452,10 +1452,10 @@
   <dimension ref="A1:BG23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="48" ySplit="6" topLeftCell="AW16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="48" ySplit="6" topLeftCell="AW7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AW20" sqref="AW20:BA20"/>
+      <selection pane="bottomRight" activeCell="AK13" sqref="AK13:AV13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -1465,246 +1465,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="18" t="s">
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="15" t="s">
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15" t="s">
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15" t="s">
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15" t="s">
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="15"/>
-      <c r="BA1" s="15"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="17">
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="18">
         <v>42571</v>
       </c>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="15" t="s">
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="17"/>
-      <c r="AU2" s="17"/>
-      <c r="AV2" s="17"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-      <c r="BA2" s="15"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="16"/>
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="16"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="17"/>
-      <c r="AK3" s="17"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="17"/>
-      <c r="AS3" s="17"/>
-      <c r="AT3" s="17"/>
-      <c r="AU3" s="17"/>
-      <c r="AV3" s="17"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-      <c r="BA3" s="15"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="16"/>
+      <c r="AZ3" s="16"/>
+      <c r="BA3" s="16"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="17"/>
-      <c r="AS4" s="17"/>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="17"/>
-      <c r="AV4" s="17"/>
-      <c r="AW4" s="15"/>
-      <c r="AX4" s="15"/>
-      <c r="AY4" s="15"/>
-      <c r="AZ4" s="15"/>
-      <c r="BA4" s="15"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="18"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="16"/>
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="16"/>
+      <c r="BA4" s="16"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -1731,68 +1731,68 @@
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14" t="s">
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="14" t="s">
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AL6" s="14"/>
-      <c r="AM6" s="14"/>
-      <c r="AN6" s="14"/>
-      <c r="AO6" s="14"/>
-      <c r="AP6" s="14"/>
-      <c r="AQ6" s="14"/>
-      <c r="AR6" s="14"/>
-      <c r="AS6" s="14"/>
-      <c r="AT6" s="14"/>
-      <c r="AU6" s="14"/>
-      <c r="AV6" s="14"/>
-      <c r="AW6" s="14" t="s">
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AX6" s="14"/>
-      <c r="AY6" s="14"/>
-      <c r="AZ6" s="14"/>
-      <c r="BA6" s="14"/>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
@@ -1805,64 +1805,64 @@
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="12" t="s">
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
-      <c r="AV7" s="13"/>
-      <c r="AW7" s="13"/>
-      <c r="AX7" s="13"/>
-      <c r="AY7" s="13"/>
-      <c r="AZ7" s="13"/>
-      <c r="BA7" s="13"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="29"/>
+      <c r="BA7" s="29"/>
     </row>
     <row r="8" spans="1:59" s="3" customFormat="1" ht="26.25" customHeight="1">
       <c r="A8" s="7">
@@ -2434,9 +2434,7 @@
       <c r="AT16" s="11"/>
       <c r="AU16" s="11"/>
       <c r="AV16" s="11"/>
-      <c r="AW16" s="29">
-        <v>42585</v>
-      </c>
+      <c r="AW16" s="12"/>
       <c r="AX16" s="11"/>
       <c r="AY16" s="11"/>
       <c r="AZ16" s="11"/>
@@ -2564,9 +2562,7 @@
       <c r="AT18" s="11"/>
       <c r="AU18" s="11"/>
       <c r="AV18" s="11"/>
-      <c r="AW18" s="29">
-        <v>42585</v>
-      </c>
+      <c r="AW18" s="12"/>
       <c r="AX18" s="11"/>
       <c r="AY18" s="11"/>
       <c r="AZ18" s="11"/>
@@ -2630,9 +2626,7 @@
       <c r="AT19" s="11"/>
       <c r="AU19" s="11"/>
       <c r="AV19" s="11"/>
-      <c r="AW19" s="29">
-        <v>42585</v>
-      </c>
+      <c r="AW19" s="12"/>
       <c r="AX19" s="11"/>
       <c r="AY19" s="11"/>
       <c r="AZ19" s="11"/>
@@ -2837,77 +2831,136 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="27" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="28" t="s">
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="27"/>
-      <c r="AL23" s="27"/>
-      <c r="AM23" s="27"/>
-      <c r="AN23" s="27"/>
-      <c r="AO23" s="27"/>
-      <c r="AP23" s="27"/>
-      <c r="AQ23" s="27"/>
-      <c r="AR23" s="27"/>
-      <c r="AS23" s="27"/>
-      <c r="AT23" s="27"/>
-      <c r="AU23" s="27"/>
-      <c r="AV23" s="27"/>
-      <c r="AW23" s="27"/>
-      <c r="AX23" s="27"/>
-      <c r="AY23" s="27"/>
-      <c r="AZ23" s="27"/>
-      <c r="BA23" s="27"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="13"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="13"/>
+      <c r="AS23" s="13"/>
+      <c r="AT23" s="13"/>
+      <c r="AU23" s="13"/>
+      <c r="AV23" s="13"/>
+      <c r="AW23" s="13"/>
+      <c r="AX23" s="13"/>
+      <c r="AY23" s="13"/>
+      <c r="AZ23" s="13"/>
+      <c r="BA23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:W21"/>
-    <mergeCell ref="X21:AJ21"/>
-    <mergeCell ref="AK21:AV21"/>
-    <mergeCell ref="AW21:BA21"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K20:W20"/>
-    <mergeCell ref="X20:AJ20"/>
-    <mergeCell ref="AK20:AV20"/>
-    <mergeCell ref="AW20:BA20"/>
+    <mergeCell ref="AK22:AV22"/>
+    <mergeCell ref="AW22:BA22"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AJ8"/>
+    <mergeCell ref="AK8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="X7:AJ7"/>
+    <mergeCell ref="AK7:AV7"/>
+    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="X10:AJ10"/>
+    <mergeCell ref="AK10:AV10"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="K17:W17"/>
+    <mergeCell ref="X17:AJ17"/>
+    <mergeCell ref="AK17:AV17"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AJ9"/>
+    <mergeCell ref="AK9:AV9"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="K16:W16"/>
+    <mergeCell ref="X16:AJ16"/>
+    <mergeCell ref="AK16:AV16"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="J2:O4"/>
+    <mergeCell ref="AH2:AL4"/>
+    <mergeCell ref="AM2:AQ4"/>
+    <mergeCell ref="AR2:AV4"/>
+    <mergeCell ref="AW2:BA4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:AG4"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="X6:AJ6"/>
+    <mergeCell ref="AK6:AV6"/>
+    <mergeCell ref="AW23:BA23"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AJ12"/>
+    <mergeCell ref="AK12:AV12"/>
+    <mergeCell ref="AW12:BA12"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="K15:W15"/>
+    <mergeCell ref="X15:AJ15"/>
+    <mergeCell ref="AK15:AV15"/>
+    <mergeCell ref="AW15:BA15"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="X18:AJ18"/>
+    <mergeCell ref="AK18:AV18"/>
+    <mergeCell ref="AW18:BA18"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="X23:AJ23"/>
+    <mergeCell ref="AK23:AV23"/>
+    <mergeCell ref="AW16:BA16"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="X22:AJ22"/>
     <mergeCell ref="AW17:BA17"/>
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="K19:W19"/>
@@ -2932,75 +2985,16 @@
     <mergeCell ref="AW13:BA13"/>
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="K10:W10"/>
-    <mergeCell ref="AW23:BA23"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AJ12"/>
-    <mergeCell ref="AK12:AV12"/>
-    <mergeCell ref="AW12:BA12"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="K15:W15"/>
-    <mergeCell ref="X15:AJ15"/>
-    <mergeCell ref="AK15:AV15"/>
-    <mergeCell ref="AW15:BA15"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="X18:AJ18"/>
-    <mergeCell ref="AK18:AV18"/>
-    <mergeCell ref="AW18:BA18"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="X23:AJ23"/>
-    <mergeCell ref="AK23:AV23"/>
-    <mergeCell ref="AW16:BA16"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:W22"/>
-    <mergeCell ref="X22:AJ22"/>
-    <mergeCell ref="K16:W16"/>
-    <mergeCell ref="X16:AJ16"/>
-    <mergeCell ref="AK16:AV16"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="A2:I4"/>
-    <mergeCell ref="J2:O4"/>
-    <mergeCell ref="AH2:AL4"/>
-    <mergeCell ref="AM2:AQ4"/>
-    <mergeCell ref="AR2:AV4"/>
-    <mergeCell ref="AW2:BA4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:AG4"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AM1:AQ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="X6:AJ6"/>
-    <mergeCell ref="AK6:AV6"/>
-    <mergeCell ref="AK22:AV22"/>
-    <mergeCell ref="AW22:BA22"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AJ8"/>
-    <mergeCell ref="AK8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="X7:AJ7"/>
-    <mergeCell ref="AK7:AV7"/>
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="X10:AJ10"/>
-    <mergeCell ref="AK10:AV10"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="K17:W17"/>
-    <mergeCell ref="X17:AJ17"/>
-    <mergeCell ref="AK17:AV17"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AJ9"/>
-    <mergeCell ref="AK9:AV9"/>
-    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:W21"/>
+    <mergeCell ref="X21:AJ21"/>
+    <mergeCell ref="AK21:AV21"/>
+    <mergeCell ref="AW21:BA21"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K20:W20"/>
+    <mergeCell ref="X20:AJ20"/>
+    <mergeCell ref="AK20:AV20"/>
+    <mergeCell ref="AW20:BA20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>

--- a/20 開発資料/05.改修管理/150_改修管理_WBSElement追加.xlsx
+++ b/20 開発資料/05.改修管理/150_改修管理_WBSElement追加.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10650" yWindow="1995" windowWidth="15600" windowHeight="10440" tabRatio="886"/>
+    <workbookView xWindow="10650" yWindow="2010" windowWidth="15600" windowHeight="10425" tabRatio="886"/>
   </bookViews>
   <sheets>
     <sheet name="WBS Element追加" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -612,76 +612,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">出力項目として講演会テーブルのWBS Element(50･55列目)を追加
-参加者テーブルのタクチケTTT備考(65列目)とタクチケ備考(66･67列目)を追加
-タクチケ発行テーブルの発地･着地(63･64列目)を追加
-</t>
-    <rPh sb="0" eb="2">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>コウエンカイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="39" eb="42">
-      <t>サンカシャ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>ハツ</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>チャクチ</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>精算金額入力(Bayer.vbproj)</t>
     <rPh sb="0" eb="2">
       <t>セイサン</t>
@@ -729,39 +659,88 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>送付状印刷(Bayer.vbproj)</t>
+    <rPh sb="0" eb="3">
+      <t>ソウフジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>インサツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DrSoufujo.vb</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホテル宿泊ありの場合、利用日の右側に「～ ○泊」を追加
+○=回答泊数</t>
+    <rPh sb="3" eb="5">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>リヨウビ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ハク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「Monolithに関するご相談_20160408.xlsx」－③</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>改修依頼書「月次のCSV項目_TTTより20160809.xlsx」に従って、CSVレイアウト変更</t>
+    <rPh sb="0" eb="2">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>イライショ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>恵和ビジネス</t>
+    <rPh sb="0" eb="1">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>改修依頼書「★①MTG毎_台帳（参加者・社員・タクチケ・航空券）_項目案_20160729恵和さんへ.xlsx」に従って、CSVレイアウト変更</t>
     <rPh sb="0" eb="2">
       <t>カイシュウ</t>
     </rPh>
     <rPh sb="2" eb="5">
       <t>イライショ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ダイチョウ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>サンカシャ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>コウクウケン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>アン</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ワ</t>
     </rPh>
     <rPh sb="57" eb="58">
       <t>シタガ</t>
@@ -826,7 +805,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -989,12 +968,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1019,11 +1035,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1449,13 +1474,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BG23"/>
+  <dimension ref="A1:BG24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="48" ySplit="6" topLeftCell="AW7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="48" ySplit="6" topLeftCell="AW10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AK13" sqref="AK13:AV13"/>
+      <selection pane="bottomRight" activeCell="X18" sqref="X18:AJ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -1465,246 +1490,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="19" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="16" t="s">
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16" t="s">
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16" t="s">
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="16"/>
-      <c r="AV1" s="16"/>
-      <c r="AW1" s="16" t="s">
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AX1" s="16"/>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="16"/>
-      <c r="BA1" s="16"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
+      <c r="AZ1" s="19"/>
+      <c r="BA1" s="19"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="18">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="21">
         <v>42571</v>
       </c>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="16" t="s">
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="16"/>
-      <c r="AX2" s="16"/>
-      <c r="AY2" s="16"/>
-      <c r="AZ2" s="16"/>
-      <c r="BA2" s="16"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="21">
+        <v>42600</v>
+      </c>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="19"/>
+      <c r="AZ2" s="19"/>
+      <c r="BA2" s="19"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="16"/>
-      <c r="AR3" s="18"/>
-      <c r="AS3" s="18"/>
-      <c r="AT3" s="18"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="16"/>
-      <c r="AX3" s="16"/>
-      <c r="AY3" s="16"/>
-      <c r="AZ3" s="16"/>
-      <c r="BA3" s="16"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="21"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="21"/>
+      <c r="AU3" s="21"/>
+      <c r="AV3" s="21"/>
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="19"/>
+      <c r="AY3" s="19"/>
+      <c r="AZ3" s="19"/>
+      <c r="BA3" s="19"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="16"/>
-      <c r="AQ4" s="16"/>
-      <c r="AR4" s="18"/>
-      <c r="AS4" s="18"/>
-      <c r="AT4" s="18"/>
-      <c r="AU4" s="18"/>
-      <c r="AV4" s="18"/>
-      <c r="AW4" s="16"/>
-      <c r="AX4" s="16"/>
-      <c r="AY4" s="16"/>
-      <c r="AZ4" s="16"/>
-      <c r="BA4" s="16"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="21"/>
+      <c r="AS4" s="21"/>
+      <c r="AT4" s="21"/>
+      <c r="AU4" s="21"/>
+      <c r="AV4" s="21"/>
+      <c r="AW4" s="19"/>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="19"/>
+      <c r="BA4" s="19"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -1731,68 +1760,68 @@
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15" t="s">
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15" t="s">
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="15"/>
-      <c r="AS6" s="15"/>
-      <c r="AT6" s="15"/>
-      <c r="AU6" s="15"/>
-      <c r="AV6" s="15"/>
-      <c r="AW6" s="15" t="s">
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="18"/>
+      <c r="AS6" s="18"/>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="18"/>
+      <c r="AW6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AX6" s="15"/>
-      <c r="AY6" s="15"/>
-      <c r="AZ6" s="15"/>
-      <c r="BA6" s="15"/>
+      <c r="AX6" s="18"/>
+      <c r="AY6" s="18"/>
+      <c r="AZ6" s="18"/>
+      <c r="BA6" s="18"/>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
@@ -1805,624 +1834,626 @@
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="29" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="28" t="s">
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="29"/>
-      <c r="AT7" s="29"/>
-      <c r="AU7" s="29"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="29"/>
-      <c r="AX7" s="29"/>
-      <c r="AY7" s="29"/>
-      <c r="AZ7" s="29"/>
-      <c r="BA7" s="29"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="31"/>
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="31"/>
+      <c r="AI7" s="31"/>
+      <c r="AJ7" s="31"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="32"/>
+      <c r="AR7" s="32"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="32"/>
+      <c r="AX7" s="32"/>
+      <c r="AY7" s="32"/>
+      <c r="AZ7" s="32"/>
+      <c r="BA7" s="32"/>
     </row>
     <row r="8" spans="1:59" s="3" customFormat="1" ht="26.25" customHeight="1">
       <c r="A8" s="7">
-        <f t="shared" ref="A8:A23" si="0">ROW()-6</f>
+        <f t="shared" ref="A8:A24" si="0">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="10" t="s">
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="11"/>
-      <c r="AN8" s="11"/>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11"/>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11"/>
-      <c r="AW8" s="11"/>
-      <c r="AX8" s="11"/>
-      <c r="AY8" s="11"/>
-      <c r="AZ8" s="11"/>
-      <c r="BA8" s="11"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="13"/>
+      <c r="AZ8" s="13"/>
+      <c r="BA8" s="13"/>
     </row>
     <row r="9" spans="1:59" s="3" customFormat="1" ht="48" customHeight="1">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="10" t="s">
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="11"/>
-      <c r="AL9" s="11"/>
-      <c r="AM9" s="11"/>
-      <c r="AN9" s="11"/>
-      <c r="AO9" s="11"/>
-      <c r="AP9" s="11"/>
-      <c r="AQ9" s="11"/>
-      <c r="AR9" s="11"/>
-      <c r="AS9" s="11"/>
-      <c r="AT9" s="11"/>
-      <c r="AU9" s="11"/>
-      <c r="AV9" s="11"/>
-      <c r="AW9" s="11"/>
-      <c r="AX9" s="11"/>
-      <c r="AY9" s="11"/>
-      <c r="AZ9" s="11"/>
-      <c r="BA9" s="11"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="13"/>
+      <c r="AZ9" s="13"/>
+      <c r="BA9" s="13"/>
     </row>
     <row r="10" spans="1:59" s="5" customFormat="1" ht="48" customHeight="1">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="10" t="s">
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="11"/>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="11"/>
-      <c r="AO10" s="11"/>
-      <c r="AP10" s="11"/>
-      <c r="AQ10" s="11"/>
-      <c r="AR10" s="11"/>
-      <c r="AS10" s="11"/>
-      <c r="AT10" s="11"/>
-      <c r="AU10" s="11"/>
-      <c r="AV10" s="11"/>
-      <c r="AW10" s="11"/>
-      <c r="AX10" s="11"/>
-      <c r="AY10" s="11"/>
-      <c r="AZ10" s="11"/>
-      <c r="BA10" s="11"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
+      <c r="AY10" s="13"/>
+      <c r="AZ10" s="13"/>
+      <c r="BA10" s="13"/>
     </row>
     <row r="11" spans="1:59" s="3" customFormat="1" ht="64.5" customHeight="1">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="10" t="s">
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="11"/>
-      <c r="AM11" s="11"/>
-      <c r="AN11" s="11"/>
-      <c r="AO11" s="11"/>
-      <c r="AP11" s="11"/>
-      <c r="AQ11" s="11"/>
-      <c r="AR11" s="11"/>
-      <c r="AS11" s="11"/>
-      <c r="AT11" s="11"/>
-      <c r="AU11" s="11"/>
-      <c r="AV11" s="11"/>
-      <c r="AW11" s="11"/>
-      <c r="AX11" s="11"/>
-      <c r="AY11" s="11"/>
-      <c r="AZ11" s="11"/>
-      <c r="BA11" s="11"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="13"/>
+      <c r="AZ11" s="13"/>
+      <c r="BA11" s="13"/>
     </row>
     <row r="12" spans="1:59" s="5" customFormat="1" ht="64.5" customHeight="1">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="10" t="s">
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="11"/>
-      <c r="AN12" s="11"/>
-      <c r="AO12" s="11"/>
-      <c r="AP12" s="11"/>
-      <c r="AQ12" s="11"/>
-      <c r="AR12" s="11"/>
-      <c r="AS12" s="11"/>
-      <c r="AT12" s="11"/>
-      <c r="AU12" s="11"/>
-      <c r="AV12" s="11"/>
-      <c r="AW12" s="11"/>
-      <c r="AX12" s="11"/>
-      <c r="AY12" s="11"/>
-      <c r="AZ12" s="11"/>
-      <c r="BA12" s="11"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="13"/>
+      <c r="AZ12" s="13"/>
+      <c r="BA12" s="13"/>
     </row>
     <row r="13" spans="1:59" s="3" customFormat="1" ht="30.75" customHeight="1">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="10" t="s">
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="11"/>
-      <c r="AN13" s="11"/>
-      <c r="AO13" s="11"/>
-      <c r="AP13" s="11"/>
-      <c r="AQ13" s="11"/>
-      <c r="AR13" s="11"/>
-      <c r="AS13" s="11"/>
-      <c r="AT13" s="11"/>
-      <c r="AU13" s="11"/>
-      <c r="AV13" s="11"/>
-      <c r="AW13" s="11"/>
-      <c r="AX13" s="11"/>
-      <c r="AY13" s="11"/>
-      <c r="AZ13" s="11"/>
-      <c r="BA13" s="11"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="13"/>
+      <c r="AX13" s="13"/>
+      <c r="AY13" s="13"/>
+      <c r="AZ13" s="13"/>
+      <c r="BA13" s="13"/>
     </row>
     <row r="14" spans="1:59" s="6" customFormat="1" ht="30.75" customHeight="1">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="10" t="s">
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="11"/>
-      <c r="AL14" s="11"/>
-      <c r="AM14" s="11"/>
-      <c r="AN14" s="11"/>
-      <c r="AO14" s="11"/>
-      <c r="AP14" s="11"/>
-      <c r="AQ14" s="11"/>
-      <c r="AR14" s="11"/>
-      <c r="AS14" s="11"/>
-      <c r="AT14" s="11"/>
-      <c r="AU14" s="11"/>
-      <c r="AV14" s="11"/>
-      <c r="AW14" s="11"/>
-      <c r="AX14" s="11"/>
-      <c r="AY14" s="11"/>
-      <c r="AZ14" s="11"/>
-      <c r="BA14" s="11"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="13"/>
+      <c r="AX14" s="13"/>
+      <c r="AY14" s="13"/>
+      <c r="AZ14" s="13"/>
+      <c r="BA14" s="13"/>
     </row>
     <row r="15" spans="1:59" s="6" customFormat="1" ht="30.75" customHeight="1">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="10" t="s">
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="11"/>
-      <c r="AL15" s="11"/>
-      <c r="AM15" s="11"/>
-      <c r="AN15" s="11"/>
-      <c r="AO15" s="11"/>
-      <c r="AP15" s="11"/>
-      <c r="AQ15" s="11"/>
-      <c r="AR15" s="11"/>
-      <c r="AS15" s="11"/>
-      <c r="AT15" s="11"/>
-      <c r="AU15" s="11"/>
-      <c r="AV15" s="11"/>
-      <c r="AW15" s="11"/>
-      <c r="AX15" s="11"/>
-      <c r="AY15" s="11"/>
-      <c r="AZ15" s="11"/>
-      <c r="BA15" s="11"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="13"/>
+      <c r="AW15" s="13"/>
+      <c r="AX15" s="13"/>
+      <c r="AY15" s="13"/>
+      <c r="AZ15" s="13"/>
+      <c r="BA15" s="13"/>
     </row>
     <row r="16" spans="1:59" s="6" customFormat="1" ht="45.75" customHeight="1">
       <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="10" t="s">
+      <c r="B16" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="11"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="AL16" s="11"/>
       <c r="AM16" s="11"/>
       <c r="AN16" s="11"/>
@@ -2433,406 +2464,404 @@
       <c r="AS16" s="11"/>
       <c r="AT16" s="11"/>
       <c r="AU16" s="11"/>
-      <c r="AV16" s="11"/>
-      <c r="AW16" s="12"/>
-      <c r="AX16" s="11"/>
-      <c r="AY16" s="11"/>
-      <c r="AZ16" s="11"/>
-      <c r="BA16" s="11"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="13"/>
+      <c r="AX16" s="13"/>
+      <c r="AY16" s="13"/>
+      <c r="AZ16" s="13"/>
+      <c r="BA16" s="13"/>
     </row>
-    <row r="17" spans="1:53" s="6" customFormat="1" ht="30.75" customHeight="1">
+    <row r="17" spans="1:53" s="6" customFormat="1" ht="45.75" customHeight="1">
       <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="10"/>
-      <c r="AK17" s="11"/>
-      <c r="AL17" s="11"/>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="11"/>
-      <c r="AP17" s="11"/>
-      <c r="AQ17" s="11"/>
-      <c r="AR17" s="11"/>
-      <c r="AS17" s="11"/>
-      <c r="AT17" s="11"/>
-      <c r="AU17" s="11"/>
-      <c r="AV17" s="11"/>
-      <c r="AW17" s="11"/>
-      <c r="AX17" s="11"/>
-      <c r="AY17" s="11"/>
-      <c r="AZ17" s="11"/>
-      <c r="BA17" s="11"/>
+      <c r="B17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="13"/>
+      <c r="AT17" s="13"/>
+      <c r="AU17" s="13"/>
+      <c r="AV17" s="13"/>
+      <c r="AW17" s="15"/>
+      <c r="AX17" s="13"/>
+      <c r="AY17" s="13"/>
+      <c r="AZ17" s="13"/>
+      <c r="BA17" s="13"/>
     </row>
-    <row r="18" spans="1:53" s="6" customFormat="1" ht="45.75" customHeight="1">
+    <row r="18" spans="1:53" s="6" customFormat="1" ht="30.75" customHeight="1">
       <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" s="10"/>
-      <c r="AK18" s="11"/>
-      <c r="AL18" s="11"/>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="11"/>
-      <c r="AO18" s="11"/>
-      <c r="AP18" s="11"/>
-      <c r="AQ18" s="11"/>
-      <c r="AR18" s="11"/>
-      <c r="AS18" s="11"/>
-      <c r="AT18" s="11"/>
-      <c r="AU18" s="11"/>
-      <c r="AV18" s="11"/>
-      <c r="AW18" s="12"/>
-      <c r="AX18" s="11"/>
-      <c r="AY18" s="11"/>
-      <c r="AZ18" s="11"/>
-      <c r="BA18" s="11"/>
+      <c r="B18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="13"/>
+      <c r="AT18" s="13"/>
+      <c r="AU18" s="13"/>
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="13"/>
+      <c r="AX18" s="13"/>
+      <c r="AY18" s="13"/>
+      <c r="AZ18" s="13"/>
+      <c r="BA18" s="13"/>
     </row>
-    <row r="19" spans="1:53" s="6" customFormat="1" ht="45.75" customHeight="1">
+    <row r="19" spans="1:53" s="6" customFormat="1" ht="30.75" customHeight="1">
       <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
-      <c r="AJ19" s="10"/>
-      <c r="AK19" s="11"/>
-      <c r="AL19" s="11"/>
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="11"/>
-      <c r="AO19" s="11"/>
-      <c r="AP19" s="11"/>
-      <c r="AQ19" s="11"/>
-      <c r="AR19" s="11"/>
-      <c r="AS19" s="11"/>
-      <c r="AT19" s="11"/>
-      <c r="AU19" s="11"/>
-      <c r="AV19" s="11"/>
-      <c r="AW19" s="12"/>
-      <c r="AX19" s="11"/>
-      <c r="AY19" s="11"/>
-      <c r="AZ19" s="11"/>
-      <c r="BA19" s="11"/>
+      <c r="B19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="13"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="13"/>
+      <c r="AS19" s="13"/>
+      <c r="AT19" s="13"/>
+      <c r="AU19" s="13"/>
+      <c r="AV19" s="13"/>
+      <c r="AW19" s="15"/>
+      <c r="AX19" s="13"/>
+      <c r="AY19" s="13"/>
+      <c r="AZ19" s="13"/>
+      <c r="BA19" s="13"/>
     </row>
-    <row r="20" spans="1:53" s="6" customFormat="1" ht="79.5" customHeight="1">
+    <row r="20" spans="1:53" s="6" customFormat="1" ht="30.75" customHeight="1">
       <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
-      <c r="AN20" s="11"/>
-      <c r="AO20" s="11"/>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11"/>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="11"/>
-      <c r="AW20" s="11"/>
-      <c r="AX20" s="11"/>
-      <c r="AY20" s="11"/>
-      <c r="AZ20" s="11"/>
-      <c r="BA20" s="11"/>
+      <c r="B20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="14"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="13"/>
+      <c r="AT20" s="13"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="15"/>
+      <c r="AX20" s="13"/>
+      <c r="AY20" s="13"/>
+      <c r="AZ20" s="13"/>
+      <c r="BA20" s="13"/>
     </row>
-    <row r="21" spans="1:53" s="6" customFormat="1" ht="79.5" customHeight="1">
+    <row r="21" spans="1:53" s="6" customFormat="1" ht="30.75" customHeight="1">
       <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="11"/>
-      <c r="AL21" s="11"/>
-      <c r="AM21" s="11"/>
-      <c r="AN21" s="11"/>
-      <c r="AO21" s="11"/>
-      <c r="AP21" s="11"/>
-      <c r="AQ21" s="11"/>
-      <c r="AR21" s="11"/>
-      <c r="AS21" s="11"/>
-      <c r="AT21" s="11"/>
-      <c r="AU21" s="11"/>
-      <c r="AV21" s="11"/>
-      <c r="AW21" s="11"/>
-      <c r="AX21" s="11"/>
-      <c r="AY21" s="11"/>
-      <c r="AZ21" s="11"/>
-      <c r="BA21" s="11"/>
+      <c r="B21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13"/>
+      <c r="AQ21" s="13"/>
+      <c r="AR21" s="13"/>
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="13"/>
+      <c r="AV21" s="13"/>
+      <c r="AW21" s="13"/>
+      <c r="AX21" s="13"/>
+      <c r="AY21" s="13"/>
+      <c r="AZ21" s="13"/>
+      <c r="BA21" s="13"/>
     </row>
-    <row r="22" spans="1:53" s="6" customFormat="1" ht="150.75" customHeight="1">
+    <row r="22" spans="1:53" s="6" customFormat="1" ht="79.5" customHeight="1">
       <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="11"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="11"/>
-      <c r="AT22" s="11"/>
-      <c r="AU22" s="11"/>
-      <c r="AV22" s="11"/>
-      <c r="AW22" s="11"/>
-      <c r="AX22" s="11"/>
-      <c r="AY22" s="11"/>
-      <c r="AZ22" s="11"/>
-      <c r="BA22" s="11"/>
+      <c r="B22" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="13"/>
+      <c r="AZ22" s="13"/>
+      <c r="BA22" s="13"/>
     </row>
-    <row r="23" spans="1:53" s="5" customFormat="1" ht="42" customHeight="1">
-      <c r="A23" s="8">
+    <row r="23" spans="1:53" s="6" customFormat="1" ht="150.75" customHeight="1">
+      <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -2842,8 +2871,8 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="13" t="s">
-        <v>48</v>
+      <c r="K23" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
@@ -2858,7 +2887,7 @@
       <c r="V23" s="13"/>
       <c r="W23" s="13"/>
       <c r="X23" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
@@ -2872,7 +2901,9 @@
       <c r="AH23" s="14"/>
       <c r="AI23" s="14"/>
       <c r="AJ23" s="14"/>
-      <c r="AK23" s="13"/>
+      <c r="AK23" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="AL23" s="13"/>
       <c r="AM23" s="13"/>
       <c r="AN23" s="13"/>
@@ -2890,10 +2921,74 @@
       <c r="AZ23" s="13"/>
       <c r="BA23" s="13"/>
     </row>
+    <row r="24" spans="1:53" s="5" customFormat="1" ht="42" customHeight="1">
+      <c r="A24" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="16"/>
+      <c r="AL24" s="16"/>
+      <c r="AM24" s="16"/>
+      <c r="AN24" s="16"/>
+      <c r="AO24" s="16"/>
+      <c r="AP24" s="16"/>
+      <c r="AQ24" s="16"/>
+      <c r="AR24" s="16"/>
+      <c r="AS24" s="16"/>
+      <c r="AT24" s="16"/>
+      <c r="AU24" s="16"/>
+      <c r="AV24" s="16"/>
+      <c r="AW24" s="16"/>
+      <c r="AX24" s="16"/>
+      <c r="AY24" s="16"/>
+      <c r="AZ24" s="16"/>
+      <c r="BA24" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="103">
-    <mergeCell ref="AK22:AV22"/>
-    <mergeCell ref="AW22:BA22"/>
+  <mergeCells count="108">
+    <mergeCell ref="AK23:AV23"/>
+    <mergeCell ref="AW23:BA23"/>
     <mergeCell ref="AW9:BA9"/>
     <mergeCell ref="B8:J8"/>
     <mergeCell ref="K8:W8"/>
@@ -2907,18 +3002,15 @@
     <mergeCell ref="AW7:BA7"/>
     <mergeCell ref="X10:AJ10"/>
     <mergeCell ref="AK10:AV10"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="K17:W17"/>
-    <mergeCell ref="X17:AJ17"/>
-    <mergeCell ref="AK17:AV17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="X18:AJ18"/>
+    <mergeCell ref="AK18:AV18"/>
     <mergeCell ref="B9:J9"/>
     <mergeCell ref="K9:W9"/>
     <mergeCell ref="X9:AJ9"/>
     <mergeCell ref="AK9:AV9"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="K16:W16"/>
-    <mergeCell ref="X16:AJ16"/>
-    <mergeCell ref="AK16:AV16"/>
+    <mergeCell ref="B17:J17"/>
     <mergeCell ref="AW6:BA6"/>
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="A2:I4"/>
@@ -2937,7 +3029,7 @@
     <mergeCell ref="K6:W6"/>
     <mergeCell ref="X6:AJ6"/>
     <mergeCell ref="AK6:AV6"/>
-    <mergeCell ref="AW23:BA23"/>
+    <mergeCell ref="AW24:BA24"/>
     <mergeCell ref="B12:J12"/>
     <mergeCell ref="K12:W12"/>
     <mergeCell ref="X12:AJ12"/>
@@ -2948,25 +3040,19 @@
     <mergeCell ref="X15:AJ15"/>
     <mergeCell ref="AK15:AV15"/>
     <mergeCell ref="AW15:BA15"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="X18:AJ18"/>
-    <mergeCell ref="AK18:AV18"/>
-    <mergeCell ref="AW18:BA18"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="X23:AJ23"/>
-    <mergeCell ref="AK23:AV23"/>
-    <mergeCell ref="AW16:BA16"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:W22"/>
-    <mergeCell ref="X22:AJ22"/>
-    <mergeCell ref="AW17:BA17"/>
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="K19:W19"/>
     <mergeCell ref="X19:AJ19"/>
     <mergeCell ref="AK19:AV19"/>
     <mergeCell ref="AW19:BA19"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="K24:W24"/>
+    <mergeCell ref="X24:AJ24"/>
+    <mergeCell ref="AK24:AV24"/>
+    <mergeCell ref="AW17:BA17"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="X23:AJ23"/>
     <mergeCell ref="AW10:BA10"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="K14:W14"/>
@@ -2985,16 +3071,30 @@
     <mergeCell ref="AW13:BA13"/>
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="K10:W10"/>
+    <mergeCell ref="AK16:AV16"/>
+    <mergeCell ref="AW16:BA16"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="X22:AJ22"/>
+    <mergeCell ref="AK22:AV22"/>
+    <mergeCell ref="AW22:BA22"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="K21:W21"/>
     <mergeCell ref="X21:AJ21"/>
     <mergeCell ref="AK21:AV21"/>
     <mergeCell ref="AW21:BA21"/>
+    <mergeCell ref="AW18:BA18"/>
     <mergeCell ref="B20:J20"/>
     <mergeCell ref="K20:W20"/>
     <mergeCell ref="X20:AJ20"/>
     <mergeCell ref="AK20:AV20"/>
     <mergeCell ref="AW20:BA20"/>
+    <mergeCell ref="K17:W17"/>
+    <mergeCell ref="X17:AJ17"/>
+    <mergeCell ref="AK17:AV17"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="K16:W16"/>
+    <mergeCell ref="X16:AJ16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>
